--- a/Retardos.xlsx
+++ b/Retardos.xlsx
@@ -11,15 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="255">
-  <si>
-    <t>Numero de empleado</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Departamento</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="257">
+  <si>
+    <t>No. de empleado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre del empleado    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departamento     </t>
   </si>
   <si>
     <t>Centro de trabajo</t>
@@ -284,6 +284,12 @@
   </si>
   <si>
     <t>Carlos Esteban Caballero Carmona</t>
+  </si>
+  <si>
+    <t>Carlos Ignacio Exzacarias Hernandez</t>
+  </si>
+  <si>
+    <t>12:28</t>
   </si>
   <si>
     <t>Carlos Ivan Rodriguez Flores</t>
@@ -791,12 +797,17 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6E6"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -811,8 +822,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1152,29 +1164,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G148"/>
+  <dimension ref="A1:G149"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1916,223 +1935,223 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>4688</v>
+        <v>7404</v>
       </c>
       <c r="B34" t="s">
         <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>7013</v>
+        <v>4688</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>6936</v>
+        <v>7013</v>
       </c>
       <c r="B36" t="s">
         <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>7223</v>
+        <v>6936</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>6849</v>
+        <v>7223</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>5837</v>
+        <v>6849</v>
       </c>
       <c r="B39" t="s">
         <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>4975</v>
+        <v>5837</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>6814</v>
+        <v>4975</v>
       </c>
       <c r="B41" t="s">
         <v>101</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D41" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="G41" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>3835</v>
+        <v>6814</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>6142</v>
+        <v>3835</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
@@ -2141,35 +2160,35 @@
         <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>6127</v>
+        <v>6142</v>
       </c>
       <c r="B44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>6548</v>
+        <v>6127</v>
       </c>
       <c r="B45" t="s">
         <v>106</v>
@@ -2178,13 +2197,13 @@
         <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="G45" t="s">
         <v>82</v>
@@ -2192,36 +2211,36 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>6893</v>
+        <v>6548</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G46" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>7195</v>
+        <v>6893</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
         <v>40</v>
@@ -2233,35 +2252,35 @@
         <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>7270</v>
+        <v>7195</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="E48" t="s">
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>6323</v>
+        <v>7270</v>
       </c>
       <c r="B49" t="s">
         <v>111</v>
@@ -2270,7 +2289,7 @@
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
@@ -2279,44 +2298,44 @@
         <v>73</v>
       </c>
       <c r="G49" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>7132</v>
+        <v>6323</v>
       </c>
       <c r="B50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
         <v>112</v>
       </c>
-      <c r="C50" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50" t="s">
-        <v>51</v>
-      </c>
       <c r="E50" t="s">
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="G50" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>7367</v>
+        <v>7132</v>
       </c>
       <c r="B51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
         <v>115</v>
       </c>
-      <c r="C51" t="s">
-        <v>8</v>
-      </c>
       <c r="D51" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
@@ -2325,110 +2344,110 @@
         <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>7384</v>
+        <v>7367</v>
       </c>
       <c r="B52" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>4374</v>
+        <v>7384</v>
       </c>
       <c r="B53" t="s">
         <v>118</v>
       </c>
       <c r="C53" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D53" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="G53" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>7168</v>
+        <v>4374</v>
       </c>
       <c r="B54" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C54" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D54" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E54" t="s">
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>7076</v>
+        <v>7168</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C55" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="D55" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G55" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>7287</v>
+        <v>7076</v>
       </c>
       <c r="B56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" t="s">
         <v>123</v>
-      </c>
-      <c r="C56" t="s">
-        <v>113</v>
       </c>
       <c r="D56" t="s">
         <v>51</v>
@@ -2445,13 +2464,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>6646</v>
+        <v>7287</v>
       </c>
       <c r="B57" t="s">
         <v>125</v>
       </c>
       <c r="C57" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D57" t="s">
         <v>51</v>
@@ -2463,18 +2482,18 @@
         <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>7173</v>
+        <v>6646</v>
       </c>
       <c r="B58" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C58" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D58" t="s">
         <v>51</v>
@@ -2486,96 +2505,96 @@
         <v>18</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>6882</v>
+        <v>7173</v>
       </c>
       <c r="B59" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="D59" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E59" t="s">
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="G59" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>6916</v>
+        <v>6882</v>
       </c>
       <c r="B60" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C60" t="s">
         <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E60" t="s">
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="G60" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>5867</v>
+        <v>6916</v>
       </c>
       <c r="B61" t="s">
         <v>130</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E61" t="s">
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G61" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>5275</v>
+        <v>5867</v>
       </c>
       <c r="B62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E62" t="s">
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G62" t="s">
         <v>19</v>
@@ -2583,154 +2602,154 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>6603</v>
+        <v>5275</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E63" t="s">
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>6616</v>
+        <v>6603</v>
       </c>
       <c r="B64" t="s">
         <v>134</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E64" t="s">
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G64" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>7063</v>
+        <v>6616</v>
       </c>
       <c r="B65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s">
         <v>135</v>
-      </c>
-      <c r="C65" t="s">
-        <v>45</v>
-      </c>
-      <c r="D65" t="s">
-        <v>136</v>
-      </c>
-      <c r="E65" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" t="s">
-        <v>105</v>
-      </c>
-      <c r="G65" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>6926</v>
+        <v>7063</v>
       </c>
       <c r="B66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" t="s">
         <v>138</v>
       </c>
-      <c r="C66" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" t="s">
-        <v>9</v>
-      </c>
       <c r="E66" t="s">
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="G66" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>7393</v>
+        <v>6926</v>
       </c>
       <c r="B67" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>7077</v>
+        <v>7393</v>
       </c>
       <c r="B68" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E68" t="s">
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G68" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>6981</v>
+        <v>7077</v>
       </c>
       <c r="B69" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="E69" t="s">
         <v>10</v>
@@ -2739,67 +2758,67 @@
         <v>11</v>
       </c>
       <c r="G69" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>6803</v>
+        <v>6981</v>
       </c>
       <c r="B70" t="s">
         <v>143</v>
       </c>
       <c r="C70" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E70" t="s">
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>6218</v>
+        <v>6803</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C71" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="D71" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="E71" t="s">
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="G71" t="s">
-        <v>146</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>7186</v>
+        <v>6218</v>
       </c>
       <c r="B72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" t="s">
         <v>147</v>
       </c>
-      <c r="C72" t="s">
-        <v>14</v>
-      </c>
       <c r="D72" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="E72" t="s">
         <v>10</v>
@@ -2808,44 +2827,44 @@
         <v>73</v>
       </c>
       <c r="G72" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>6818</v>
+        <v>7186</v>
       </c>
       <c r="B73" t="s">
         <v>149</v>
       </c>
       <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
         <v>150</v>
       </c>
-      <c r="D73" t="s">
-        <v>151</v>
-      </c>
       <c r="E73" t="s">
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="G73" t="s">
-        <v>133</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>7073</v>
+        <v>6818</v>
       </c>
       <c r="B74" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" t="s">
         <v>152</v>
       </c>
-      <c r="C74" t="s">
-        <v>32</v>
-      </c>
       <c r="D74" t="s">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="E74" t="s">
         <v>10</v>
@@ -2854,21 +2873,21 @@
         <v>18</v>
       </c>
       <c r="G74" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>7211</v>
+        <v>7073</v>
       </c>
       <c r="B75" t="s">
         <v>154</v>
       </c>
       <c r="C75" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="D75" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E75" t="s">
         <v>10</v>
@@ -2882,16 +2901,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>7378</v>
+        <v>7211</v>
       </c>
       <c r="B76" t="s">
         <v>156</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="D76" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E76" t="s">
         <v>10</v>
@@ -2900,113 +2919,113 @@
         <v>18</v>
       </c>
       <c r="G76" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>6840</v>
+        <v>7378</v>
       </c>
       <c r="B77" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E77" t="s">
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G77" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>7324</v>
+        <v>6840</v>
       </c>
       <c r="B78" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E78" t="s">
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>5348</v>
+        <v>7324</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="E79" t="s">
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>6858</v>
+        <v>5348</v>
       </c>
       <c r="B80" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C80" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="E80" t="s">
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>6950</v>
+        <v>6858</v>
       </c>
       <c r="B81" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D81" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E81" t="s">
         <v>10</v>
@@ -3015,44 +3034,44 @@
         <v>18</v>
       </c>
       <c r="G81" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>7310</v>
+        <v>6950</v>
       </c>
       <c r="B82" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E82" t="s">
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>223</v>
+        <v>7310</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C83" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E83" t="s">
         <v>10</v>
@@ -3061,67 +3080,67 @@
         <v>11</v>
       </c>
       <c r="G83" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>6225</v>
+        <v>223</v>
       </c>
       <c r="B84" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D84" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="E84" t="s">
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="G84" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>6763</v>
+        <v>6225</v>
       </c>
       <c r="B85" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="E85" t="s">
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="G85" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>3138</v>
+        <v>6763</v>
       </c>
       <c r="B86" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E86" t="s">
         <v>10</v>
@@ -3130,87 +3149,87 @@
         <v>11</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>6714</v>
+        <v>3138</v>
       </c>
       <c r="B87" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C87" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E87" t="s">
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G87" t="s">
-        <v>168</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>7079</v>
+        <v>6714</v>
       </c>
       <c r="B88" t="s">
         <v>169</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D88" t="s">
+        <v>37</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
+        <v>23</v>
+      </c>
+      <c r="G88" t="s">
         <v>170</v>
-      </c>
-      <c r="E88" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" t="s">
-        <v>171</v>
-      </c>
-      <c r="G88" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>5182</v>
+        <v>7079</v>
       </c>
       <c r="B89" t="s">
+        <v>171</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>172</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
       </c>
-      <c r="C89" t="s">
-        <v>21</v>
-      </c>
-      <c r="D89" t="s">
-        <v>37</v>
-      </c>
-      <c r="E89" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" t="s">
-        <v>23</v>
-      </c>
       <c r="G89" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>2626</v>
+        <v>5182</v>
       </c>
       <c r="B90" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C90" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D90" t="s">
         <v>37</v>
@@ -3219,21 +3238,21 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G90" t="s">
-        <v>175</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>6898</v>
+        <v>2626</v>
       </c>
       <c r="B91" t="s">
         <v>176</v>
       </c>
       <c r="C91" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="D91" t="s">
         <v>37</v>
@@ -3242,93 +3261,93 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G91" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>5940</v>
+        <v>6898</v>
       </c>
       <c r="B92" t="s">
         <v>178</v>
       </c>
       <c r="C92" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="D92" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E92" t="s">
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G92" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>7094</v>
+        <v>5940</v>
       </c>
       <c r="B93" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C93" t="s">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="D93" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E93" t="s">
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G93" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>7361</v>
+        <v>7094</v>
       </c>
       <c r="B94" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>179</v>
       </c>
       <c r="D94" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E94" t="s">
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G94" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>6983</v>
+        <v>7361</v>
       </c>
       <c r="B95" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C95" t="s">
         <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E95" t="s">
         <v>10</v>
@@ -3337,81 +3356,81 @@
         <v>11</v>
       </c>
       <c r="G95" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>3538</v>
+        <v>6983</v>
       </c>
       <c r="B96" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C96" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E96" t="s">
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G96" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>7157</v>
+        <v>3538</v>
       </c>
       <c r="B97" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D97" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="E97" t="s">
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="G97" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>3135</v>
+        <v>7157</v>
       </c>
       <c r="B98" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C98" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="E98" t="s">
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="G98" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>6868</v>
+        <v>3135</v>
       </c>
       <c r="B99" t="s">
         <v>186</v>
@@ -3426,7 +3445,7 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="G99" t="s">
         <v>187</v>
@@ -3434,102 +3453,102 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>6963</v>
+        <v>6868</v>
       </c>
       <c r="B100" t="s">
         <v>188</v>
       </c>
       <c r="C100" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D100" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E100" t="s">
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G100" t="s">
-        <v>48</v>
+        <v>189</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>7342</v>
+        <v>6963</v>
       </c>
       <c r="B101" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D101" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="E101" t="s">
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="G101" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>6125</v>
+        <v>7342</v>
       </c>
       <c r="B102" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C102" t="s">
         <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="E102" t="s">
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="G102" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>767</v>
+        <v>6125</v>
       </c>
       <c r="B103" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C103" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D103" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E103" t="s">
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G103" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>753</v>
+        <v>767</v>
       </c>
       <c r="B104" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C104" t="s">
         <v>21</v>
@@ -3544,113 +3563,113 @@
         <v>23</v>
       </c>
       <c r="G104" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>6286</v>
+        <v>753</v>
       </c>
       <c r="B105" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C105" t="s">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="D105" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="E105" t="s">
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="G105" t="s">
-        <v>195</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>7109</v>
+        <v>6286</v>
       </c>
       <c r="B106" t="s">
+        <v>195</v>
+      </c>
+      <c r="C106" t="s">
         <v>196</v>
       </c>
-      <c r="C106" t="s">
-        <v>56</v>
-      </c>
       <c r="D106" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="E106" t="s">
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="G106" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>6609</v>
+        <v>7109</v>
       </c>
       <c r="B107" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C107" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="D107" t="s">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="E107" t="s">
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="G107" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>703</v>
+        <v>6609</v>
       </c>
       <c r="B108" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C108" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="D108" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="E108" t="s">
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="G108" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>5060</v>
+        <v>703</v>
       </c>
       <c r="B109" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C109" t="s">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="D109" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E109" t="s">
         <v>10</v>
@@ -3659,196 +3678,196 @@
         <v>18</v>
       </c>
       <c r="G109" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>6994</v>
+        <v>5060</v>
       </c>
       <c r="B110" t="s">
         <v>201</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="D110" t="s">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="E110" t="s">
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="G110" t="s">
-        <v>203</v>
+        <v>52</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>136</v>
+        <v>6994</v>
       </c>
       <c r="B111" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="E111" t="s">
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="G111" t="s">
-        <v>84</v>
+        <v>205</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>844</v>
+        <v>136</v>
       </c>
       <c r="B112" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C112" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E112" t="s">
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G112" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>6970</v>
+        <v>844</v>
       </c>
       <c r="B113" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D113" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E113" t="s">
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G113" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>7052</v>
+        <v>6970</v>
       </c>
       <c r="B114" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C114" t="s">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="D114" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="E114" t="s">
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="G114" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>3307</v>
+        <v>7052</v>
       </c>
       <c r="B115" t="s">
         <v>209</v>
       </c>
       <c r="C115" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="D115" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="E115" t="s">
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>6733</v>
+        <v>3307</v>
       </c>
       <c r="B116" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C116" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D116" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E116" t="s">
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G116" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>7066</v>
+        <v>6733</v>
       </c>
       <c r="B117" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D117" t="s">
-        <v>212</v>
+        <v>58</v>
       </c>
       <c r="E117" t="s">
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="G117" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>6902</v>
+        <v>7066</v>
       </c>
       <c r="B118" t="s">
         <v>213</v>
@@ -3857,36 +3876,36 @@
         <v>8</v>
       </c>
       <c r="D118" t="s">
-        <v>58</v>
+        <v>214</v>
       </c>
       <c r="E118" t="s">
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="G118" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>7008</v>
+        <v>6902</v>
       </c>
       <c r="B119" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D119" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="E119" t="s">
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G119" t="s">
         <v>48</v>
@@ -3894,16 +3913,16 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>6765</v>
+        <v>7008</v>
       </c>
       <c r="B120" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C120" t="s">
-        <v>216</v>
+        <v>32</v>
       </c>
       <c r="D120" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E120" t="s">
         <v>10</v>
@@ -3912,44 +3931,44 @@
         <v>18</v>
       </c>
       <c r="G120" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>6867</v>
+        <v>6765</v>
       </c>
       <c r="B121" t="s">
         <v>217</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>218</v>
       </c>
       <c r="D121" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="E121" t="s">
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="G121" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>6157</v>
+        <v>6867</v>
       </c>
       <c r="B122" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C122" t="s">
         <v>8</v>
       </c>
       <c r="D122" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="E122" t="s">
         <v>10</v>
@@ -3958,67 +3977,67 @@
         <v>73</v>
       </c>
       <c r="G122" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>7069</v>
+        <v>6157</v>
       </c>
       <c r="B123" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C123" t="s">
         <v>8</v>
       </c>
       <c r="D123" t="s">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="E123" t="s">
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="G123" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>7386</v>
+        <v>7069</v>
       </c>
       <c r="B124" t="s">
         <v>221</v>
       </c>
       <c r="C124" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D124" t="s">
-        <v>30</v>
+        <v>222</v>
       </c>
       <c r="E124" t="s">
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G124" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>5307</v>
+        <v>7386</v>
       </c>
       <c r="B125" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C125" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="D125" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E125" t="s">
         <v>10</v>
@@ -4027,12 +4046,12 @@
         <v>23</v>
       </c>
       <c r="G125" t="s">
-        <v>223</v>
+        <v>54</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>5649</v>
+        <v>5307</v>
       </c>
       <c r="B126" t="s">
         <v>224</v>
@@ -4055,36 +4074,36 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>6851</v>
+        <v>5649</v>
       </c>
       <c r="B127" t="s">
         <v>226</v>
       </c>
       <c r="C127" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D127" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E127" t="s">
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G127" t="s">
-        <v>52</v>
+        <v>227</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>6246</v>
+        <v>6851</v>
       </c>
       <c r="B128" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D128" t="s">
         <v>40</v>
@@ -4093,24 +4112,24 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G128" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>7135</v>
+        <v>6246</v>
       </c>
       <c r="B129" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C129" t="s">
         <v>8</v>
       </c>
       <c r="D129" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E129" t="s">
         <v>10</v>
@@ -4124,76 +4143,76 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>6979</v>
+        <v>7135</v>
       </c>
       <c r="B130" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C130" t="s">
         <v>8</v>
       </c>
       <c r="D130" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E130" t="s">
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>230</v>
+        <v>18</v>
       </c>
       <c r="G130" t="s">
-        <v>137</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>4243</v>
+        <v>6979</v>
       </c>
       <c r="B131" t="s">
         <v>231</v>
       </c>
       <c r="C131" t="s">
-        <v>194</v>
+        <v>8</v>
       </c>
       <c r="D131" t="s">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="E131" t="s">
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="G131" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>213</v>
+        <v>4243</v>
       </c>
       <c r="B132" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C132" t="s">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="D132" t="s">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="E132" t="s">
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G132" t="s">
-        <v>233</v>
+        <v>48</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>7044</v>
+        <v>213</v>
       </c>
       <c r="B133" t="s">
         <v>234</v>
@@ -4216,33 +4235,33 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>6244</v>
+        <v>7044</v>
       </c>
       <c r="B134" t="s">
         <v>236</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D134" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E134" t="s">
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G134" t="s">
-        <v>59</v>
+        <v>237</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>6270</v>
+        <v>6244</v>
       </c>
       <c r="B135" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C135" t="s">
         <v>8</v>
@@ -4254,24 +4273,24 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G135" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>6706</v>
+        <v>6270</v>
       </c>
       <c r="B136" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C136" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D136" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E136" t="s">
         <v>10</v>
@@ -4280,35 +4299,35 @@
         <v>18</v>
       </c>
       <c r="G136" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>7416</v>
+        <v>6706</v>
       </c>
       <c r="B137" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C137" t="s">
         <v>14</v>
       </c>
       <c r="D137" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E137" t="s">
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G137" t="s">
-        <v>240</v>
+        <v>84</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>7379</v>
+        <v>7416</v>
       </c>
       <c r="B138" t="s">
         <v>241</v>
@@ -4317,73 +4336,73 @@
         <v>14</v>
       </c>
       <c r="D138" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E138" t="s">
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G138" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>5200</v>
+        <v>7379</v>
       </c>
       <c r="B139" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C139" t="s">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="D139" t="s">
-        <v>243</v>
+        <v>37</v>
       </c>
       <c r="E139" t="s">
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="G139" t="s">
-        <v>133</v>
+        <v>227</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>7394</v>
+        <v>5200</v>
       </c>
       <c r="B140" t="s">
         <v>244</v>
       </c>
       <c r="C140" t="s">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c r="D140" t="s">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="E140" t="s">
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="G140" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>5926</v>
+        <v>7394</v>
       </c>
       <c r="B141" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C141" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D141" t="s">
         <v>15</v>
@@ -4395,90 +4414,90 @@
         <v>11</v>
       </c>
       <c r="G141" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>6932</v>
+        <v>5926</v>
       </c>
       <c r="B142" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D142" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E142" t="s">
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G142" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>6831</v>
+        <v>6932</v>
       </c>
       <c r="B143" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C143" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D143" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E143" t="s">
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G143" t="s">
-        <v>248</v>
+        <v>61</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>379</v>
+        <v>6831</v>
       </c>
       <c r="B144" t="s">
         <v>249</v>
       </c>
       <c r="C144" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D144" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E144" t="s">
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G144" t="s">
-        <v>48</v>
+        <v>250</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>6372</v>
+        <v>379</v>
       </c>
       <c r="B145" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C145" t="s">
         <v>32</v>
       </c>
       <c r="D145" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="E145" t="s">
         <v>10</v>
@@ -4492,74 +4511,98 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>4157</v>
+        <v>6372</v>
       </c>
       <c r="B146" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C146" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D146" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E146" t="s">
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G146" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>6020</v>
+        <v>4157</v>
       </c>
       <c r="B147" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C147" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D147" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E147" t="s">
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="G147" t="s">
-        <v>253</v>
+        <v>84</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>7362</v>
+        <v>6020</v>
       </c>
       <c r="B148" t="s">
         <v>254</v>
       </c>
       <c r="C148" t="s">
+        <v>45</v>
+      </c>
+      <c r="D148" t="s">
+        <v>72</v>
+      </c>
+      <c r="E148" t="s">
+        <v>10</v>
+      </c>
+      <c r="F148" t="s">
+        <v>73</v>
+      </c>
+      <c r="G148" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>7362</v>
+      </c>
+      <c r="B149" t="s">
+        <v>256</v>
+      </c>
+      <c r="C149" t="s">
         <v>8</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D149" t="s">
         <v>15</v>
       </c>
-      <c r="E148" t="s">
-        <v>10</v>
-      </c>
-      <c r="F148" t="s">
-        <v>18</v>
-      </c>
-      <c r="G148" t="s">
-        <v>122</v>
+      <c r="E149" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149" t="s">
+        <v>18</v>
+      </c>
+      <c r="G149" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D149"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>

--- a/Retardos.xlsx
+++ b/Retardos.xlsx
@@ -28,7 +28,7 @@
     <t>Fecha de registro</t>
   </si>
   <si>
-    <t>Turno de Lunes a Viernes</t>
+    <t>Turno del dia</t>
   </si>
   <si>
     <t>check de entrada</t>
@@ -1170,7 +1170,7 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Retardos.xlsx
+++ b/Retardos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="206">
   <si>
     <t>No. de empleado</t>
   </si>
@@ -34,754 +34,601 @@
     <t>check de entrada</t>
   </si>
   <si>
-    <t>Abdiel Alonso Gonzalez</t>
+    <t>Abisay Gutierrez Hernandez</t>
   </si>
   <si>
     <t>SERVICIO</t>
   </si>
   <si>
+    <t>MBVE</t>
+  </si>
+  <si>
+    <t>26/08/2023</t>
+  </si>
+  <si>
+    <t>8:30 - 13:30</t>
+  </si>
+  <si>
+    <t>08:49</t>
+  </si>
+  <si>
+    <t>Adolfo Olvera Valdivia</t>
+  </si>
+  <si>
+    <t>REFACCIONES</t>
+  </si>
+  <si>
+    <t>MBCO</t>
+  </si>
+  <si>
+    <t>08:46</t>
+  </si>
+  <si>
+    <t>Agustin Gonzalez Perez</t>
+  </si>
+  <si>
+    <t>MBTG</t>
+  </si>
+  <si>
+    <t>09:00 - 14:00</t>
+  </si>
+  <si>
+    <t>09:18</t>
+  </si>
+  <si>
+    <t>Ahtziri Sarahi Rodriguez Fuentes</t>
+  </si>
+  <si>
+    <t>NUEVAS</t>
+  </si>
+  <si>
+    <t>ACVE</t>
+  </si>
+  <si>
+    <t>09:00 - 18:00</t>
+  </si>
+  <si>
+    <t>09:10</t>
+  </si>
+  <si>
+    <t>Alan Felix Macias</t>
+  </si>
+  <si>
+    <t>MBZA</t>
+  </si>
+  <si>
+    <t>8:00 - 14:00</t>
+  </si>
+  <si>
+    <t>08:02</t>
+  </si>
+  <si>
+    <t>Alberto De Jesus Ruiz Castillo</t>
+  </si>
+  <si>
+    <t>CENTRALIZADOR ADMINISTRACION</t>
+  </si>
+  <si>
+    <t>MBCE</t>
+  </si>
+  <si>
+    <t>09:16</t>
+  </si>
+  <si>
+    <t>Alexandra Elizabeth Lara Sanchez</t>
+  </si>
+  <si>
+    <t>HOJALATERIA Y PINTURA</t>
+  </si>
+  <si>
+    <t>CHDM</t>
+  </si>
+  <si>
+    <t>09:09</t>
+  </si>
+  <si>
+    <t>Alexis Martinez Uscanga</t>
+  </si>
+  <si>
+    <t>MBCI</t>
+  </si>
+  <si>
+    <t>09:03</t>
+  </si>
+  <si>
+    <t>Alondra Rodriguez Ortega</t>
+  </si>
+  <si>
+    <t>UNIDADES</t>
+  </si>
+  <si>
+    <t>MBCU</t>
+  </si>
+  <si>
+    <t>09:15</t>
+  </si>
+  <si>
+    <t>Amada Lucia Arzaba Salamanca</t>
+  </si>
+  <si>
+    <t>08:31</t>
+  </si>
+  <si>
+    <t>America Irais Moreno Gamez</t>
+  </si>
+  <si>
+    <t>09:06</t>
+  </si>
+  <si>
+    <t>Andrea Stephania Valerio Galvez</t>
+  </si>
+  <si>
+    <t>Andres Ortiz Roldan</t>
+  </si>
+  <si>
+    <t>POST VENTA</t>
+  </si>
+  <si>
+    <t>MBPR</t>
+  </si>
+  <si>
+    <t>09:11</t>
+  </si>
+  <si>
+    <t>Angel Antonio Lopez Rodriguez</t>
+  </si>
+  <si>
+    <t>Angel Eduardo Gonzalez Perez</t>
+  </si>
+  <si>
+    <t>09:02</t>
+  </si>
+  <si>
+    <t>Angel Isaac Lobato Vilorio</t>
+  </si>
+  <si>
+    <t>09:07</t>
+  </si>
+  <si>
+    <t>Angeles Selene Elguea Gonzalez</t>
+  </si>
+  <si>
+    <t>Araceli Cortes Hernandez</t>
+  </si>
+  <si>
+    <t>CHVE</t>
+  </si>
+  <si>
+    <t>09:05</t>
+  </si>
+  <si>
+    <t>Ariana Ramon Islas</t>
+  </si>
+  <si>
+    <t>Armando Dominguez Vazquez</t>
+  </si>
+  <si>
+    <t>MBCZ</t>
+  </si>
+  <si>
+    <t>09:01</t>
+  </si>
+  <si>
+    <t>Armando Romero Huerta</t>
+  </si>
+  <si>
+    <t>08:34</t>
+  </si>
+  <si>
+    <t>Arturo Lucio Jimenez Fierro</t>
+  </si>
+  <si>
+    <t>08:38</t>
+  </si>
+  <si>
+    <t>Brenda Ines Olvera Thome</t>
+  </si>
+  <si>
+    <t>BDC VENTAS</t>
+  </si>
+  <si>
+    <t>09:28</t>
+  </si>
+  <si>
+    <t>Carlos Esteban Caballero Carmona</t>
+  </si>
+  <si>
+    <t>Carlos Manuel Tolentino Hernandez</t>
+  </si>
+  <si>
+    <t>Cesar Peregrino Jimenez</t>
+  </si>
+  <si>
+    <t>09:08</t>
+  </si>
+  <si>
+    <t>Cristina Basurto Vazquez</t>
+  </si>
+  <si>
+    <t>CHMO</t>
+  </si>
+  <si>
+    <t>09:24</t>
+  </si>
+  <si>
+    <t>Cristopher Sanchez Nuñez</t>
+  </si>
+  <si>
+    <t>Dalia Yaczhintle Garcia Pulido</t>
+  </si>
+  <si>
+    <t>BDC</t>
+  </si>
+  <si>
+    <t>Damaris Samanta Melendez Lopez</t>
+  </si>
+  <si>
+    <t>ISVE</t>
+  </si>
+  <si>
+    <t>09:04</t>
+  </si>
+  <si>
+    <t>Daniel Garcia Hernandez</t>
+  </si>
+  <si>
+    <t>David Lopez Garcia</t>
+  </si>
+  <si>
+    <t>09:12</t>
+  </si>
+  <si>
+    <t>Diana Hermida Gonzalez</t>
+  </si>
+  <si>
+    <t>Diego De Jesus Solano Gutierrez</t>
+  </si>
+  <si>
+    <t>09:14</t>
+  </si>
+  <si>
+    <t>Diego Osornio Ortiz</t>
+  </si>
+  <si>
+    <t>Edgar Alfonso Garcia Mayorga</t>
+  </si>
+  <si>
+    <t>Edgar Bernal Guerrero</t>
+  </si>
+  <si>
+    <t>Efrain Santiago Ovando</t>
+  </si>
+  <si>
+    <t>09:43</t>
+  </si>
+  <si>
+    <t>Elizabeth Martinez Reyes</t>
+  </si>
+  <si>
+    <t>Erendira Alin Enriquez Vallejo</t>
+  </si>
+  <si>
+    <t>Eric Adolfo Hernandez Ramirez</t>
+  </si>
+  <si>
+    <t>Erika Martinez Cortes</t>
+  </si>
+  <si>
+    <t>Erika Resendiz Mortera</t>
+  </si>
+  <si>
+    <t>Erving Leonardo Rivera Orozco</t>
+  </si>
+  <si>
+    <t>Fernando Vazquez Hernandez</t>
+  </si>
+  <si>
+    <t>Francisco Javier Pascual Jimenez</t>
+  </si>
+  <si>
+    <t>Fredy Rodriguez Huerta</t>
+  </si>
+  <si>
+    <t>Frida Paola Velazquez Rivera</t>
+  </si>
+  <si>
+    <t>BDC POST VENTA</t>
+  </si>
+  <si>
+    <t>Gloria Sandoval Hernandez</t>
+  </si>
+  <si>
+    <t>08:52</t>
+  </si>
+  <si>
+    <t>Hageo Iram Martinez Vega</t>
+  </si>
+  <si>
+    <t>Heber Alfredo Nieves Barcenas</t>
+  </si>
+  <si>
+    <t>08:33</t>
+  </si>
+  <si>
+    <t>Hector Antonio Carranza Jimenez</t>
+  </si>
+  <si>
+    <t>GRVE</t>
+  </si>
+  <si>
+    <t>Hector Omar Lopez Velez</t>
+  </si>
+  <si>
     <t>MBXA</t>
   </si>
   <si>
-    <t>25/08/2023</t>
-  </si>
-  <si>
-    <t>8:30 - 19:00</t>
+    <t>Herlinda Hernandez Alvarado</t>
+  </si>
+  <si>
+    <t>Hugo Rodriguez Romero</t>
+  </si>
+  <si>
+    <t>Isis Del Carmen Martinez Gutierrez</t>
+  </si>
+  <si>
+    <t>SEMINUEVOS</t>
+  </si>
+  <si>
+    <t>Itzel Hernandez Esquivel</t>
+  </si>
+  <si>
+    <t>Ivan Guerrero Serrano</t>
+  </si>
+  <si>
+    <t>ISPH</t>
+  </si>
+  <si>
+    <t>Jair Luqueño Luciano</t>
+  </si>
+  <si>
+    <t>Jessica Ariadna Morales Romero</t>
+  </si>
+  <si>
+    <t>Jessica Yamili Centeno Aviles</t>
+  </si>
+  <si>
+    <t>Jorge Alberto Lara Pestaña</t>
+  </si>
+  <si>
+    <t>Jose Antonio Verastegui Martinez</t>
   </si>
   <si>
     <t>08:39</t>
   </si>
   <si>
-    <t>Adolfo Olvera Valdivia</t>
-  </si>
-  <si>
-    <t>REFACCIONES</t>
-  </si>
-  <si>
-    <t>MBCO</t>
+    <t>Jose Armando Molina Bautista</t>
+  </si>
+  <si>
+    <t>Jose Enrique Sarabia Amador</t>
+  </si>
+  <si>
+    <t>09:26</t>
+  </si>
+  <si>
+    <t>Jose Manuel Felix Hernandez</t>
+  </si>
+  <si>
+    <t>08:05</t>
+  </si>
+  <si>
+    <t>Jose Miguel Barrera Arcos</t>
+  </si>
+  <si>
+    <t>Josue Cabrera Cervantes</t>
+  </si>
+  <si>
+    <t>Jovita Morales Rivera</t>
+  </si>
+  <si>
+    <t>Juan Antonio Clemente Moreno</t>
+  </si>
+  <si>
+    <t>MBTUKU</t>
+  </si>
+  <si>
+    <t>08:42</t>
+  </si>
+  <si>
+    <t>Juan Samuel Zarate Rojas</t>
+  </si>
+  <si>
+    <t>Karina Leon Hernandez</t>
+  </si>
+  <si>
+    <t>Karla Arev Velazquez Roldan</t>
+  </si>
+  <si>
+    <t>Karla Candelaria Muñoz Naranjo</t>
+  </si>
+  <si>
+    <t>Karla Ivette Palacios Ramos</t>
+  </si>
+  <si>
+    <t>Katia Karina Mauriño Valerio</t>
+  </si>
+  <si>
+    <t>Kevin De Jesus Morales Garcia</t>
+  </si>
+  <si>
+    <t>Luis Antonio Pacheco Perez</t>
+  </si>
+  <si>
+    <t>Luis Gustavo Beltran Montes</t>
+  </si>
+  <si>
+    <t>Lupita Carmona Simonin</t>
+  </si>
+  <si>
+    <t>Marcela Monroy Margarito</t>
+  </si>
+  <si>
+    <t>08:41</t>
+  </si>
+  <si>
+    <t>Marcos Elias Sanchez Baldizan</t>
+  </si>
+  <si>
+    <t>Margarita Galicia Aragon</t>
+  </si>
+  <si>
+    <t>Maria Del Carmen Julian Trapaga</t>
+  </si>
+  <si>
+    <t>MBTU</t>
+  </si>
+  <si>
+    <t>Maria Del Carmen Muñoz Lopez</t>
+  </si>
+  <si>
+    <t>08:44</t>
+  </si>
+  <si>
+    <t>Maria Elena Lopez Vivanco</t>
+  </si>
+  <si>
+    <t>CENTRALIZADOR OPERATIVO</t>
+  </si>
+  <si>
+    <t>09:13</t>
+  </si>
+  <si>
+    <t>Maria Guadalupe Sanchez Vazquez</t>
+  </si>
+  <si>
+    <t>Maria Monserrat Luciano Huerta</t>
   </si>
   <si>
     <t>08:45</t>
   </si>
   <si>
-    <t>Agustin Vilchis Roiz</t>
-  </si>
-  <si>
-    <t>08:30 - 17:30</t>
-  </si>
-  <si>
-    <t>08:35</t>
-  </si>
-  <si>
-    <t>Ahtziri Sarahi Rodriguez Fuentes</t>
-  </si>
-  <si>
-    <t>NUEVAS</t>
-  </si>
-  <si>
-    <t>ACVE</t>
-  </si>
-  <si>
-    <t>8:30 - 19:30</t>
-  </si>
-  <si>
-    <t>09:05</t>
-  </si>
-  <si>
-    <t>Alan Felix Macias</t>
-  </si>
-  <si>
-    <t>MBZA</t>
-  </si>
-  <si>
-    <t>8:00 - 18:00</t>
-  </si>
-  <si>
-    <t>08:02</t>
-  </si>
-  <si>
-    <t>Alberto Castro Espinoza</t>
-  </si>
-  <si>
-    <t>CHDM</t>
-  </si>
-  <si>
-    <t>Alberto De Jesus Ruiz Castillo</t>
-  </si>
-  <si>
-    <t>CENTRALIZADOR ADMINISTRACION</t>
-  </si>
-  <si>
-    <t>MBCE</t>
-  </si>
-  <si>
-    <t>08:40</t>
-  </si>
-  <si>
-    <t>Alejandra Espinos Huerta</t>
-  </si>
-  <si>
-    <t>CENTRALIZADOR OPERATIVO</t>
-  </si>
-  <si>
-    <t>CHVE</t>
-  </si>
-  <si>
-    <t>08:58</t>
-  </si>
-  <si>
-    <t>Alexis Martinez Uscanga</t>
-  </si>
-  <si>
-    <t>MBCI</t>
-  </si>
-  <si>
-    <t>08:32</t>
-  </si>
-  <si>
-    <t>Alfonso Fuentes Marin</t>
-  </si>
-  <si>
-    <t>09:11</t>
-  </si>
-  <si>
-    <t>Amada Lucia Arzaba Salamanca</t>
-  </si>
-  <si>
-    <t>UNIDADES</t>
-  </si>
-  <si>
-    <t>08:37</t>
-  </si>
-  <si>
-    <t>Ana Gisela Castillo Reyes</t>
-  </si>
-  <si>
-    <t>08:31</t>
-  </si>
-  <si>
-    <t>Ana Michel Espinosa Lagunes</t>
-  </si>
-  <si>
-    <t>MERCADOTECNIA</t>
-  </si>
-  <si>
-    <t>CEEXVE</t>
-  </si>
-  <si>
-    <t>08:38</t>
-  </si>
-  <si>
-    <t>Andrea Stephania Valerio Galvez</t>
-  </si>
-  <si>
-    <t>08:53</t>
-  </si>
-  <si>
-    <t>Andres Cruz Hernandez</t>
-  </si>
-  <si>
-    <t>HOJALATERIA Y PINTURA</t>
-  </si>
-  <si>
-    <t>Angel Antonio Lopez Rodriguez</t>
-  </si>
-  <si>
-    <t>MBVE</t>
-  </si>
-  <si>
-    <t>08:46</t>
-  </si>
-  <si>
-    <t>Angel Eduardo Gonzalez Perez</t>
-  </si>
-  <si>
-    <t>08:47</t>
-  </si>
-  <si>
-    <t>Angel Roman Garcia Garcia</t>
-  </si>
-  <si>
-    <t>SEMINUEVOS</t>
-  </si>
-  <si>
-    <t>09:09</t>
-  </si>
-  <si>
-    <t>Angel Ubaldo Zarate</t>
-  </si>
-  <si>
-    <t>08:34</t>
-  </si>
-  <si>
-    <t>Apolinar Rafael Landa Rivera</t>
-  </si>
-  <si>
-    <t>08:48</t>
-  </si>
-  <si>
-    <t>Araceli Cortes Hernandez</t>
-  </si>
-  <si>
-    <t>Ariana Ramon Islas</t>
-  </si>
-  <si>
-    <t>Armando Dominguez Vazquez</t>
-  </si>
-  <si>
-    <t>MBCZ</t>
-  </si>
-  <si>
-    <t>8:30 - 18:00</t>
-  </si>
-  <si>
-    <t>Arturo Lucio Jimenez Fierro</t>
-  </si>
-  <si>
-    <t>Asael Sabat Cruz Sanchez</t>
-  </si>
-  <si>
-    <t>EXVE</t>
-  </si>
-  <si>
-    <t>Bertha Patricia Zuñiga Rosales</t>
-  </si>
-  <si>
-    <t>CHMO</t>
-  </si>
-  <si>
-    <t>08:59</t>
-  </si>
-  <si>
-    <t>Brenda Ines Olvera Thome</t>
-  </si>
-  <si>
-    <t>BDC VENTAS</t>
-  </si>
-  <si>
-    <t>09:12</t>
-  </si>
-  <si>
-    <t>Brian Rechy Sanchez</t>
-  </si>
-  <si>
-    <t>08:43</t>
-  </si>
-  <si>
-    <t>Candelaria Salazar Mayo</t>
-  </si>
-  <si>
-    <t>09:20</t>
-  </si>
-  <si>
-    <t>Carlos Alejandro Hernandez Zuñiga</t>
-  </si>
-  <si>
-    <t>10:53</t>
-  </si>
-  <si>
-    <t>Carlos Daniel Hernandez Hernandez</t>
-  </si>
-  <si>
-    <t>Carlos Esteban Caballero Carmona</t>
-  </si>
-  <si>
-    <t>Carlos Ignacio Exzacarias Hernandez</t>
-  </si>
-  <si>
-    <t>12:28</t>
-  </si>
-  <si>
-    <t>Carlos Ivan Rodriguez Flores</t>
-  </si>
-  <si>
-    <t>Ciro Saldaña Carrera</t>
-  </si>
-  <si>
-    <t>08:44</t>
-  </si>
-  <si>
-    <t>Cristina Basurto Vazquez</t>
-  </si>
-  <si>
-    <t>Cristopher Sanchez Nuñez</t>
-  </si>
-  <si>
-    <t>Dalia Yaczhintle Garcia Pulido</t>
-  </si>
-  <si>
-    <t>BDC</t>
-  </si>
-  <si>
-    <t>Daniel Garcia Hernandez</t>
-  </si>
-  <si>
-    <t>Daniel Perez Torres</t>
+    <t>Maria De Los Angeles Rodriguez Perez</t>
+  </si>
+  <si>
+    <t>Mayra Hernandez Ramirez</t>
+  </si>
+  <si>
+    <t>Miguel Angel Gonzaga Romero</t>
+  </si>
+  <si>
+    <t>CENTRALIZADOR</t>
+  </si>
+  <si>
+    <t>Miguel Angel Hernandez Montiel</t>
+  </si>
+  <si>
+    <t>Miguel Angel Reyes Rodriguez</t>
+  </si>
+  <si>
+    <t>Neftali Hernandez Vargas</t>
+  </si>
+  <si>
+    <t>Norma Leticia Reyes Jota</t>
+  </si>
+  <si>
+    <t>Norma Yazmin Malaga Minguez</t>
+  </si>
+  <si>
+    <t>Omar De Jesus Alarcon Agama</t>
+  </si>
+  <si>
+    <t>Omar Jacome Valladares</t>
+  </si>
+  <si>
+    <t>Oscar Hermilo Espindola Perez</t>
+  </si>
+  <si>
+    <t>Oscar Vargas Guzman</t>
+  </si>
+  <si>
+    <t>Oswaldo Daniel Lara Sanchez</t>
+  </si>
+  <si>
+    <t>Paola Galvan Hernandez</t>
+  </si>
+  <si>
+    <t>ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>Rafael Espinoza Ramirez</t>
+  </si>
+  <si>
+    <t>Ramon Mejia Perez</t>
+  </si>
+  <si>
+    <t>Ricardo Lara Pestaña</t>
+  </si>
+  <si>
+    <t>Ricardo Mota Garcia</t>
+  </si>
+  <si>
+    <t>09:17</t>
+  </si>
+  <si>
+    <t>Ricardo De Santiago Reyes</t>
+  </si>
+  <si>
+    <t>08:07</t>
+  </si>
+  <si>
+    <t>Rodrigo Ramirez Armas</t>
+  </si>
+  <si>
+    <t>Roxana Puig Avila</t>
+  </si>
+  <si>
+    <t>09:21</t>
+  </si>
+  <si>
+    <t>Ruben Maldonado Dolores</t>
+  </si>
+  <si>
+    <t>GENERALES</t>
+  </si>
+  <si>
+    <t>Sarahi Elvira Rendon</t>
+  </si>
+  <si>
+    <t>Sergio Rendon Montes</t>
+  </si>
+  <si>
+    <t>Sergio Rosales Hernandez</t>
+  </si>
+  <si>
+    <t>08:06</t>
+  </si>
+  <si>
+    <t>Victor Gabriel Hernandez Tovar</t>
+  </si>
+  <si>
+    <t>Virginia Perez Mendez</t>
+  </si>
+  <si>
+    <t>Virginia Yazmin Galvan Estrada</t>
+  </si>
+  <si>
+    <t>09:19</t>
+  </si>
+  <si>
+    <t>Yadira Loyo Morales</t>
+  </si>
+  <si>
+    <t>Yazheel Ramirez Campos</t>
   </si>
   <si>
     <t>08:50</t>
   </si>
   <si>
-    <t>David Laido Bautista</t>
-  </si>
-  <si>
-    <t>David Lopez Garcia</t>
-  </si>
-  <si>
-    <t>Denisse Concepcion Flores Amaya</t>
-  </si>
-  <si>
-    <t>Diana Hermida Gonzalez</t>
-  </si>
-  <si>
-    <t>09:00 - 18:00</t>
-  </si>
-  <si>
-    <t>Diana Monserrat Montes Lara</t>
-  </si>
-  <si>
-    <t>Diego De Jesus Solano Gutierrez</t>
-  </si>
-  <si>
-    <t>Diego Osornio Ortiz</t>
-  </si>
-  <si>
-    <t>Edgar Alfonso Garcia Mayorga</t>
-  </si>
-  <si>
-    <t>MBCU</t>
-  </si>
-  <si>
-    <t>Edgar Bernal Guerrero</t>
-  </si>
-  <si>
-    <t>Edher Julian Bravo Hernandez</t>
-  </si>
-  <si>
-    <t>CENTRALIZADOR CONTABILIDAD</t>
-  </si>
-  <si>
-    <t>08:49</t>
-  </si>
-  <si>
-    <t>Eduardo Andres Vidaña Clemow</t>
-  </si>
-  <si>
-    <t>Efrain Santiago Ovando</t>
-  </si>
-  <si>
-    <t>09:34</t>
-  </si>
-  <si>
-    <t>Elizabeth Lazaro Quiroga</t>
-  </si>
-  <si>
-    <t>Erendira Alin Enriquez Vallejo</t>
-  </si>
-  <si>
-    <t>Erick Orlando Enrique Nava Aguilera</t>
-  </si>
-  <si>
-    <t>CENTRALIZADOR AUDITORIA</t>
-  </si>
-  <si>
-    <t>08:42</t>
-  </si>
-  <si>
-    <t>Esveidy Paredes Gomez</t>
-  </si>
-  <si>
-    <t>08:52</t>
-  </si>
-  <si>
-    <t>Ewing Lael Rodriguez Ramirez</t>
-  </si>
-  <si>
-    <t>Francisco Aldazaba Salinas</t>
-  </si>
-  <si>
-    <t>Fredy Rodriguez Huerta</t>
-  </si>
-  <si>
-    <t>Gerardo Aldair Perez Morales</t>
-  </si>
-  <si>
-    <t>10:10</t>
-  </si>
-  <si>
-    <t>Gilberto Lara Romero</t>
-  </si>
-  <si>
-    <t>Guadalupe Del Carmen Anota Golpe</t>
-  </si>
-  <si>
-    <t>Hanmed Ali Montalvo</t>
-  </si>
-  <si>
-    <t>08:33</t>
-  </si>
-  <si>
-    <t>Heber Alfredo Nieves Barcenas</t>
-  </si>
-  <si>
-    <t>Hector Antonio Carranza Jimenez</t>
-  </si>
-  <si>
-    <t>GRVE</t>
-  </si>
-  <si>
-    <t>09:04</t>
-  </si>
-  <si>
-    <t>Hector Omar Lopez Velez</t>
-  </si>
-  <si>
-    <t>Hector Rodriguez Tapia</t>
-  </si>
-  <si>
-    <t>Homero Huerta Borromeo</t>
-  </si>
-  <si>
-    <t>Hugo Luis Vasquez Basurto</t>
-  </si>
-  <si>
-    <t>08:36</t>
-  </si>
-  <si>
-    <t>Hugo Rodriguez Romero</t>
-  </si>
-  <si>
-    <t>Iris Ivonne Valladares Vergara</t>
-  </si>
-  <si>
-    <t>POST VENTA</t>
-  </si>
-  <si>
-    <t>09:47</t>
-  </si>
-  <si>
-    <t>Irving Aldair Dominguez Hernandez</t>
-  </si>
-  <si>
-    <t>MBTG</t>
-  </si>
-  <si>
-    <t>Isa Edith Valdez Caballero</t>
-  </si>
-  <si>
-    <t>ADMINISTRATIVO</t>
-  </si>
-  <si>
-    <t>MBCECO</t>
-  </si>
-  <si>
-    <t>Jacqueline Berger Lagunes</t>
-  </si>
-  <si>
-    <t>09:02</t>
-  </si>
-  <si>
-    <t>Javier De Los Santos Trujillo</t>
-  </si>
-  <si>
-    <t>08:51</t>
-  </si>
-  <si>
-    <t>Jefte Reyes Dominguez</t>
-  </si>
-  <si>
-    <t>Jessica Ariadna Morales Romero</t>
-  </si>
-  <si>
-    <t>Jesus Fabian Chacha</t>
-  </si>
-  <si>
-    <t>Jordy Garcia Izquierdo</t>
-  </si>
-  <si>
-    <t>Jorge Alberto Guerra Pastrana</t>
-  </si>
-  <si>
-    <t>Jorge Alberto Lara Pestaña</t>
-  </si>
-  <si>
-    <t>Jose Antonio Verastegui Martinez</t>
-  </si>
-  <si>
-    <t>Jose Enrique Sarabia Amador</t>
-  </si>
-  <si>
-    <t>Jose Luis Vargas Trujillo</t>
-  </si>
-  <si>
-    <t>Jose Manuel Jimenez Rosas</t>
-  </si>
-  <si>
-    <t>Jose Miguel Barrera Arcos</t>
-  </si>
-  <si>
-    <t>Jovita Morales Rivera</t>
-  </si>
-  <si>
-    <t>09:03</t>
-  </si>
-  <si>
-    <t>Juan Antonio Clemente Moreno</t>
-  </si>
-  <si>
-    <t>MBTUKU</t>
-  </si>
-  <si>
-    <t>8:00 - 17:30</t>
-  </si>
-  <si>
-    <t>08:15</t>
-  </si>
-  <si>
-    <t>Juan Carlos Guerrero Saenz</t>
-  </si>
-  <si>
-    <t>Juan Pablo Ramon Pastrana</t>
-  </si>
-  <si>
-    <t>10:19</t>
-  </si>
-  <si>
-    <t>Karina Leon Hernandez</t>
-  </si>
-  <si>
-    <t>BDC POST VENTA</t>
-  </si>
-  <si>
-    <t>Karla Arev Velazquez Roldan</t>
-  </si>
-  <si>
-    <t>Karla Candelaria Muñoz Naranjo</t>
-  </si>
-  <si>
-    <t>Katia Karina Mauriño Valerio</t>
-  </si>
-  <si>
-    <t>Kevin De Jesus Morales Garcia</t>
-  </si>
-  <si>
-    <t>Laura Elizabeth Pou Rivera</t>
-  </si>
-  <si>
-    <t>Liliana Ruiz Atrisco</t>
-  </si>
-  <si>
-    <t>Luis Alfredo Alarcon Martinez</t>
-  </si>
-  <si>
-    <t>09:23</t>
-  </si>
-  <si>
-    <t>Luis Alfredo Lara Reyes</t>
-  </si>
-  <si>
-    <t>09:16</t>
-  </si>
-  <si>
-    <t>Luis Antonio Rosas Aquino</t>
-  </si>
-  <si>
-    <t>Luis Fernando Hernandez Muñoz</t>
-  </si>
-  <si>
-    <t>Luis Gustavo Beltran Montes</t>
-  </si>
-  <si>
-    <t>Lupita Carmona Simonin</t>
-  </si>
-  <si>
-    <t>Luz Del Carmen Uscanga Hernandez</t>
-  </si>
-  <si>
-    <t>Ma. Esthela Espinoza Hernandez</t>
-  </si>
-  <si>
-    <t>GENERALES</t>
-  </si>
-  <si>
-    <t>12:10</t>
-  </si>
-  <si>
-    <t>Manuel Genaro Chigo Pelayo</t>
-  </si>
-  <si>
-    <t>Marcela Monroy Margarito</t>
-  </si>
-  <si>
-    <t>Margarita Galicia Aragon</t>
-  </si>
-  <si>
-    <t>Maria Del Carmen Escribano Garcia</t>
-  </si>
-  <si>
-    <t>ADMINISTRACION CORPORATIVA</t>
-  </si>
-  <si>
-    <t>Maria Del Carmen Julian Trapaga</t>
-  </si>
-  <si>
-    <t>MBTU</t>
-  </si>
-  <si>
-    <t>08:06</t>
-  </si>
-  <si>
-    <t>Maria Del Carmen Muñoz Lopez</t>
-  </si>
-  <si>
-    <t>Maria Elena Lopez Vivanco</t>
-  </si>
-  <si>
-    <t>Maria Monserrat Luciano Huerta</t>
-  </si>
-  <si>
-    <t>Marisol Alvarez Altamirano</t>
-  </si>
-  <si>
-    <t>ISPH</t>
-  </si>
-  <si>
-    <t>Mauricio Lozano Galvan</t>
-  </si>
-  <si>
-    <t>Mauricio Rosales Alvarez</t>
-  </si>
-  <si>
-    <t>Mayra Garcia Rebollar</t>
-  </si>
-  <si>
-    <t>MBAC</t>
-  </si>
-  <si>
-    <t>Mayra Hernandez Ramirez</t>
-  </si>
-  <si>
-    <t>Michelle De Jesus Gonzalez Cruz</t>
-  </si>
-  <si>
-    <t>Miguel Angel Gonzaga Romero</t>
-  </si>
-  <si>
-    <t>CENTRALIZADOR</t>
-  </si>
-  <si>
-    <t>Miguel Angel Hernandez Montiel</t>
-  </si>
-  <si>
-    <t>Miguel Angel Lopez Hernandez</t>
-  </si>
-  <si>
-    <t>Miguel Angel Reyes Rodriguez</t>
-  </si>
-  <si>
-    <t>ISVE</t>
-  </si>
-  <si>
-    <t>Monserrat Rodriguez Sanchez</t>
-  </si>
-  <si>
-    <t>Norma Leticia Reyes Jota</t>
-  </si>
-  <si>
-    <t>10:09</t>
-  </si>
-  <si>
-    <t>Norma Yazmin Malaga Minguez</t>
-  </si>
-  <si>
-    <t>08:54</t>
-  </si>
-  <si>
-    <t>Omar De Jesus Alarcon Agama</t>
-  </si>
-  <si>
-    <t>Oscar Vargas Guzman</t>
-  </si>
-  <si>
-    <t>Osmar Josuhe Jimenez Santos</t>
-  </si>
-  <si>
-    <t>Oswaldo Herrera Mendoza</t>
-  </si>
-  <si>
-    <t>9:00 - 19:00</t>
-  </si>
-  <si>
-    <t>Paula Araus Gonzalez</t>
-  </si>
-  <si>
-    <t>Rafael Ivan Balcazar Arenas</t>
-  </si>
-  <si>
-    <t>09:01</t>
-  </si>
-  <si>
-    <t>Ricardo Brambila Corro</t>
-  </si>
-  <si>
-    <t>09:08</t>
-  </si>
-  <si>
-    <t>Ricardo Lara Pestaña</t>
-  </si>
-  <si>
-    <t>Ricardo Mota Garcia</t>
-  </si>
-  <si>
-    <t>Ricardo Obil Natividad</t>
-  </si>
-  <si>
-    <t>Ricardo De Santiago Reyes</t>
-  </si>
-  <si>
-    <t>08:04</t>
-  </si>
-  <si>
-    <t>Roy Martinez Aviles</t>
-  </si>
-  <si>
-    <t>Ruben Maldonado Dolores</t>
-  </si>
-  <si>
-    <t>MBPR</t>
-  </si>
-  <si>
-    <t>Salvador Martinez Mendoza</t>
-  </si>
-  <si>
-    <t>Sandra Yadira Velazquez Sanchez</t>
-  </si>
-  <si>
-    <t>Sarahi Elvira Rendon</t>
-  </si>
-  <si>
-    <t>Saydel Romero Rodriguez</t>
-  </si>
-  <si>
-    <t>09:14</t>
-  </si>
-  <si>
-    <t>Sonia Zulema Cano Muñoz</t>
-  </si>
-  <si>
-    <t>Tania Samanta Romero Salazar</t>
-  </si>
-  <si>
-    <t>Victor Gabriel Hernandez Tovar</t>
-  </si>
-  <si>
-    <t>Virginia Yazmin Galvan Estrada</t>
-  </si>
-  <si>
-    <t>10:07</t>
-  </si>
-  <si>
-    <t>Yaeli Gonzalez Barragan</t>
+    <t>Zaqueo Salas Alvarado</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G149"/>
+  <dimension ref="A1:G120"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
@@ -1199,7 +1046,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3933</v>
+        <v>7271</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1245,7 +1092,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>6017</v>
+        <v>7360</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -1254,16 +1101,16 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1271,22 +1118,22 @@
         <v>7036</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1294,1721 +1141,1721 @@
         <v>6626</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7385</v>
+        <v>5017</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5017</v>
+        <v>7020</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6265</v>
+        <v>7116</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7116</v>
+        <v>7289</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>6539</v>
+        <v>4209</v>
       </c>
       <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>4209</v>
+        <v>6682</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>5441</v>
+        <v>7421</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>7010</v>
+        <v>3299</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>7421</v>
+        <v>7368</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>6753</v>
+        <v>6680</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
       </c>
       <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
         <v>56</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>7368</v>
+        <v>7235</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
         <v>58</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>6680</v>
+        <v>7365</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
         <v>40</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>6828</v>
+        <v>6164</v>
       </c>
       <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
         <v>62</v>
-      </c>
-      <c r="C19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>6525</v>
+        <v>6675</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1947</v>
+        <v>6702</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>6164</v>
+        <v>7226</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>6675</v>
+        <v>921</v>
       </c>
       <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
         <v>70</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>6702</v>
+        <v>6634</v>
       </c>
       <c r="B24" t="s">
         <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
       </c>
       <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s">
         <v>73</v>
-      </c>
-      <c r="G24" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>921</v>
+        <v>5696</v>
       </c>
       <c r="B25" t="s">
         <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>7029</v>
+        <v>6553</v>
       </c>
       <c r="B26" t="s">
         <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>7399</v>
+        <v>7329</v>
       </c>
       <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" t="s">
         <v>77</v>
-      </c>
-      <c r="C27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>6634</v>
+        <v>6936</v>
       </c>
       <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s">
         <v>80</v>
-      </c>
-      <c r="C28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>7169</v>
+        <v>7223</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>4422</v>
+        <v>6849</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>969</v>
+        <v>6900</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>6989</v>
+        <v>5837</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>5696</v>
+        <v>3835</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>7404</v>
+        <v>6127</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>4688</v>
+        <v>6893</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>7013</v>
+        <v>7195</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>6936</v>
+        <v>7270</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>7223</v>
+        <v>6323</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>6849</v>
+        <v>7384</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>5837</v>
+        <v>5349</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>4975</v>
+        <v>7168</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G41" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>6814</v>
+        <v>6607</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>3835</v>
+        <v>6604</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G43" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>6142</v>
+        <v>7182</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>6127</v>
+        <v>7346</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>6548</v>
+        <v>7208</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>6893</v>
+        <v>7220</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C47" t="s">
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E47" t="s">
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>7195</v>
+        <v>6882</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E48" t="s">
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>7270</v>
+        <v>5675</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="D49" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>6323</v>
+        <v>7196</v>
       </c>
       <c r="B50" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>7132</v>
+        <v>7011</v>
       </c>
       <c r="B51" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>7367</v>
+        <v>6616</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C52" t="s">
         <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>7384</v>
+        <v>7063</v>
       </c>
       <c r="B53" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C53" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D53" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>4374</v>
+        <v>6926</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E54" t="s">
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>7168</v>
+        <v>504</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D55" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G55" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>7076</v>
+        <v>6803</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C56" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G56" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>7287</v>
+        <v>7034</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C57" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D57" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G57" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>6646</v>
+        <v>7156</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="D58" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>7173</v>
+        <v>7053</v>
       </c>
       <c r="B59" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="E59" t="s">
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>6882</v>
+        <v>7344</v>
       </c>
       <c r="B60" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C60" t="s">
         <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E60" t="s">
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>6916</v>
+        <v>6840</v>
       </c>
       <c r="B61" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C61" t="s">
         <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E61" t="s">
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G61" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>5867</v>
+        <v>7184</v>
       </c>
       <c r="B62" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E62" t="s">
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G62" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>5275</v>
+        <v>6950</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s">
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E63" t="s">
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G63" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>6603</v>
+        <v>7310</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E64" t="s">
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G64" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>6616</v>
+        <v>5154</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="E65" t="s">
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G65" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>7063</v>
+        <v>223</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C66" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D66" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="E66" t="s">
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="G66" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>6926</v>
+        <v>7101</v>
       </c>
       <c r="B67" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G67" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>7393</v>
+        <v>3138</v>
       </c>
       <c r="B68" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C68" t="s">
         <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="E68" t="s">
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>7077</v>
+        <v>7348</v>
       </c>
       <c r="B69" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E69" t="s">
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G69" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>6981</v>
+        <v>6714</v>
       </c>
       <c r="B70" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="E70" t="s">
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G70" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>6803</v>
+        <v>7079</v>
       </c>
       <c r="B71" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="E71" t="s">
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>6218</v>
+        <v>7296</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C72" t="s">
-        <v>147</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="E72" t="s">
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="G72" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>7186</v>
+        <v>6898</v>
       </c>
       <c r="B73" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="D73" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="E73" t="s">
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="G73" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>6818</v>
+        <v>5940</v>
       </c>
       <c r="B74" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C74" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="D74" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
       <c r="E74" t="s">
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G74" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>7073</v>
+        <v>7094</v>
       </c>
       <c r="B75" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="D75" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E75" t="s">
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G75" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>7211</v>
+        <v>7281</v>
       </c>
       <c r="B76" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C76" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="D76" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="E76" t="s">
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G76" t="s">
-        <v>157</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>7378</v>
+        <v>7361</v>
       </c>
       <c r="B77" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E77" t="s">
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G77" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>6840</v>
+        <v>6983</v>
       </c>
       <c r="B78" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E78" t="s">
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G78" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>7324</v>
+        <v>3619</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E79" t="s">
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>5348</v>
+        <v>6125</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C80" t="s">
         <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="E80" t="s">
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="G80" t="s">
         <v>46</v>
@@ -3016,125 +2863,125 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>6858</v>
+        <v>767</v>
       </c>
       <c r="B81" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C81" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D81" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E81" t="s">
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>6950</v>
+        <v>6609</v>
       </c>
       <c r="B82" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="D82" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="E82" t="s">
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G82" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>7310</v>
+        <v>7343</v>
       </c>
       <c r="B83" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E83" t="s">
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>223</v>
+        <v>703</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C84" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D84" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E84" t="s">
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G84" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>6225</v>
+        <v>6994</v>
       </c>
       <c r="B85" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="E85" t="s">
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="G85" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>6763</v>
+        <v>136</v>
       </c>
       <c r="B86" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
@@ -3149,757 +2996,757 @@
         <v>11</v>
       </c>
       <c r="G86" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>3138</v>
+        <v>844</v>
       </c>
       <c r="B87" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>161</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="E87" t="s">
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>6714</v>
+        <v>7095</v>
       </c>
       <c r="B88" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D88" t="s">
+        <v>61</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
+        <v>19</v>
+      </c>
+      <c r="G88" t="s">
         <v>37</v>
-      </c>
-      <c r="E88" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" t="s">
-        <v>23</v>
-      </c>
-      <c r="G88" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>7079</v>
+        <v>6970</v>
       </c>
       <c r="B89" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C89" t="s">
         <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c r="E89" t="s">
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="G89" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>5182</v>
+        <v>7288</v>
       </c>
       <c r="B90" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C90" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E90" t="s">
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G90" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>2626</v>
+        <v>6902</v>
       </c>
       <c r="B91" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C91" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E91" t="s">
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G91" t="s">
-        <v>177</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>6898</v>
+        <v>6765</v>
       </c>
       <c r="B92" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C92" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D92" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E92" t="s">
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>5940</v>
+        <v>6867</v>
       </c>
       <c r="B93" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C93" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E93" t="s">
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G93" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>7094</v>
+        <v>7069</v>
       </c>
       <c r="B94" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C94" t="s">
-        <v>179</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E94" t="s">
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G94" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>7361</v>
+        <v>7120</v>
       </c>
       <c r="B95" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="E95" t="s">
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G95" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>6983</v>
+        <v>5307</v>
       </c>
       <c r="B96" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="D96" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E96" t="s">
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G96" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>3538</v>
+        <v>5649</v>
       </c>
       <c r="B97" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C97" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="D97" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E97" t="s">
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G97" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>7157</v>
+        <v>6851</v>
       </c>
       <c r="B98" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="E98" t="s">
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="G98" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>3135</v>
+        <v>5609</v>
       </c>
       <c r="B99" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C99" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D99" t="s">
+        <v>36</v>
+      </c>
+      <c r="E99" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" t="s">
+        <v>19</v>
+      </c>
+      <c r="G99" t="s">
         <v>37</v>
-      </c>
-      <c r="E99" t="s">
-        <v>10</v>
-      </c>
-      <c r="F99" t="s">
-        <v>107</v>
-      </c>
-      <c r="G99" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>6868</v>
+        <v>218</v>
       </c>
       <c r="B100" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C100" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E100" t="s">
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G100" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>6963</v>
+        <v>6246</v>
       </c>
       <c r="B101" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C101" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D101" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E101" t="s">
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G101" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>7342</v>
+        <v>6955</v>
       </c>
       <c r="B102" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="E102" t="s">
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="G102" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>6125</v>
+        <v>6555</v>
       </c>
       <c r="B103" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="D103" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="E103" t="s">
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G103" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>767</v>
+        <v>6922</v>
       </c>
       <c r="B104" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C104" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="E104" t="s">
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G104" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>753</v>
+        <v>1604</v>
       </c>
       <c r="B105" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C105" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D105" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E105" t="s">
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G105" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>6286</v>
+        <v>6244</v>
       </c>
       <c r="B106" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C106" t="s">
-        <v>196</v>
+        <v>8</v>
       </c>
       <c r="D106" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="E106" t="s">
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="G106" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>7109</v>
+        <v>6270</v>
       </c>
       <c r="B107" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C107" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D107" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E107" t="s">
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G107" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>6609</v>
+        <v>7416</v>
       </c>
       <c r="B108" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C108" t="s">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="E108" t="s">
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="G108" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>703</v>
+        <v>6341</v>
       </c>
       <c r="B109" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C109" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E109" t="s">
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G109" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>5060</v>
+        <v>7267</v>
       </c>
       <c r="B110" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C110" t="s">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="D110" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E110" t="s">
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G110" t="s">
-        <v>52</v>
+        <v>191</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>6994</v>
+        <v>5200</v>
       </c>
       <c r="B111" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C111" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="D111" t="s">
-        <v>204</v>
+        <v>52</v>
       </c>
       <c r="E111" t="s">
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="G111" t="s">
-        <v>205</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>136</v>
+        <v>6932</v>
       </c>
       <c r="B112" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C112" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D112" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E112" t="s">
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G112" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>844</v>
+        <v>7112</v>
       </c>
       <c r="B113" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C113" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="E113" t="s">
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G113" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>6970</v>
+        <v>7279</v>
       </c>
       <c r="B114" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C114" t="s">
         <v>8</v>
       </c>
       <c r="D114" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E114" t="s">
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G114" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>7052</v>
+        <v>4157</v>
       </c>
       <c r="B115" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C115" t="s">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="D115" t="s">
-        <v>210</v>
+        <v>39</v>
       </c>
       <c r="E115" t="s">
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="G115" t="s">
-        <v>170</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>3307</v>
+        <v>3846</v>
       </c>
       <c r="B116" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D116" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="E116" t="s">
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>6733</v>
+        <v>6020</v>
       </c>
       <c r="B117" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C117" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D117" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E117" t="s">
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G117" t="s">
-        <v>135</v>
+        <v>201</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>7066</v>
+        <v>5677</v>
       </c>
       <c r="B118" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C118" t="s">
         <v>8</v>
       </c>
       <c r="D118" t="s">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c r="E118" t="s">
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>6902</v>
+        <v>7313</v>
       </c>
       <c r="B119" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D119" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E119" t="s">
         <v>10</v>
@@ -3908,701 +3755,34 @@
         <v>11</v>
       </c>
       <c r="G119" t="s">
-        <v>48</v>
+        <v>204</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>7008</v>
+        <v>4010</v>
       </c>
       <c r="B120" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C120" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D120" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="E120" t="s">
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G120" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>6765</v>
-      </c>
-      <c r="B121" t="s">
-        <v>217</v>
-      </c>
-      <c r="C121" t="s">
-        <v>218</v>
-      </c>
-      <c r="D121" t="s">
         <v>37</v>
       </c>
-      <c r="E121" t="s">
-        <v>10</v>
-      </c>
-      <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>6867</v>
-      </c>
-      <c r="B122" t="s">
-        <v>219</v>
-      </c>
-      <c r="C122" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122" t="s">
-        <v>112</v>
-      </c>
-      <c r="E122" t="s">
-        <v>10</v>
-      </c>
-      <c r="F122" t="s">
-        <v>73</v>
-      </c>
-      <c r="G122" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>6157</v>
-      </c>
-      <c r="B123" t="s">
-        <v>220</v>
-      </c>
-      <c r="C123" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" t="s">
-        <v>72</v>
-      </c>
-      <c r="E123" t="s">
-        <v>10</v>
-      </c>
-      <c r="F123" t="s">
-        <v>73</v>
-      </c>
-      <c r="G123" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>7069</v>
-      </c>
-      <c r="B124" t="s">
-        <v>221</v>
-      </c>
-      <c r="C124" t="s">
-        <v>8</v>
-      </c>
-      <c r="D124" t="s">
-        <v>222</v>
-      </c>
-      <c r="E124" t="s">
-        <v>10</v>
-      </c>
-      <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>7386</v>
-      </c>
-      <c r="B125" t="s">
-        <v>223</v>
-      </c>
-      <c r="C125" t="s">
-        <v>21</v>
-      </c>
-      <c r="D125" t="s">
-        <v>30</v>
-      </c>
-      <c r="E125" t="s">
-        <v>10</v>
-      </c>
-      <c r="F125" t="s">
-        <v>23</v>
-      </c>
-      <c r="G125" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>5307</v>
-      </c>
-      <c r="B126" t="s">
-        <v>224</v>
-      </c>
-      <c r="C126" t="s">
-        <v>81</v>
-      </c>
-      <c r="D126" t="s">
-        <v>37</v>
-      </c>
-      <c r="E126" t="s">
-        <v>10</v>
-      </c>
-      <c r="F126" t="s">
-        <v>23</v>
-      </c>
-      <c r="G126" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>5649</v>
-      </c>
-      <c r="B127" t="s">
-        <v>226</v>
-      </c>
-      <c r="C127" t="s">
-        <v>81</v>
-      </c>
-      <c r="D127" t="s">
-        <v>37</v>
-      </c>
-      <c r="E127" t="s">
-        <v>10</v>
-      </c>
-      <c r="F127" t="s">
-        <v>23</v>
-      </c>
-      <c r="G127" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>6851</v>
-      </c>
-      <c r="B128" t="s">
-        <v>228</v>
-      </c>
-      <c r="C128" t="s">
-        <v>14</v>
-      </c>
-      <c r="D128" t="s">
-        <v>40</v>
-      </c>
-      <c r="E128" t="s">
-        <v>10</v>
-      </c>
-      <c r="F128" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>6246</v>
-      </c>
-      <c r="B129" t="s">
-        <v>229</v>
-      </c>
-      <c r="C129" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" t="s">
-        <v>40</v>
-      </c>
-      <c r="E129" t="s">
-        <v>10</v>
-      </c>
-      <c r="F129" t="s">
-        <v>18</v>
-      </c>
-      <c r="G129" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>7135</v>
-      </c>
-      <c r="B130" t="s">
-        <v>230</v>
-      </c>
-      <c r="C130" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" t="s">
-        <v>58</v>
-      </c>
-      <c r="E130" t="s">
-        <v>10</v>
-      </c>
-      <c r="F130" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>6979</v>
-      </c>
-      <c r="B131" t="s">
-        <v>231</v>
-      </c>
-      <c r="C131" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" t="s">
-        <v>37</v>
-      </c>
-      <c r="E131" t="s">
-        <v>10</v>
-      </c>
-      <c r="F131" t="s">
-        <v>232</v>
-      </c>
-      <c r="G131" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>4243</v>
-      </c>
-      <c r="B132" t="s">
-        <v>233</v>
-      </c>
-      <c r="C132" t="s">
-        <v>196</v>
-      </c>
-      <c r="D132" t="s">
-        <v>222</v>
-      </c>
-      <c r="E132" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>213</v>
-      </c>
-      <c r="B133" t="s">
-        <v>234</v>
-      </c>
-      <c r="C133" t="s">
-        <v>21</v>
-      </c>
-      <c r="D133" t="s">
-        <v>78</v>
-      </c>
-      <c r="E133" t="s">
-        <v>10</v>
-      </c>
-      <c r="F133" t="s">
-        <v>23</v>
-      </c>
-      <c r="G133" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>7044</v>
-      </c>
-      <c r="B134" t="s">
-        <v>236</v>
-      </c>
-      <c r="C134" t="s">
-        <v>21</v>
-      </c>
-      <c r="D134" t="s">
-        <v>78</v>
-      </c>
-      <c r="E134" t="s">
-        <v>10</v>
-      </c>
-      <c r="F134" t="s">
-        <v>23</v>
-      </c>
-      <c r="G134" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>6244</v>
-      </c>
-      <c r="B135" t="s">
-        <v>238</v>
-      </c>
-      <c r="C135" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" t="s">
-        <v>40</v>
-      </c>
-      <c r="E135" t="s">
-        <v>10</v>
-      </c>
-      <c r="F135" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>6270</v>
-      </c>
-      <c r="B136" t="s">
-        <v>239</v>
-      </c>
-      <c r="C136" t="s">
-        <v>8</v>
-      </c>
-      <c r="D136" t="s">
-        <v>40</v>
-      </c>
-      <c r="E136" t="s">
-        <v>10</v>
-      </c>
-      <c r="F136" t="s">
-        <v>18</v>
-      </c>
-      <c r="G136" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>6706</v>
-      </c>
-      <c r="B137" t="s">
-        <v>240</v>
-      </c>
-      <c r="C137" t="s">
-        <v>14</v>
-      </c>
-      <c r="D137" t="s">
-        <v>37</v>
-      </c>
-      <c r="E137" t="s">
-        <v>10</v>
-      </c>
-      <c r="F137" t="s">
-        <v>18</v>
-      </c>
-      <c r="G137" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>7416</v>
-      </c>
-      <c r="B138" t="s">
-        <v>241</v>
-      </c>
-      <c r="C138" t="s">
-        <v>14</v>
-      </c>
-      <c r="D138" t="s">
-        <v>26</v>
-      </c>
-      <c r="E138" t="s">
-        <v>10</v>
-      </c>
-      <c r="F138" t="s">
-        <v>27</v>
-      </c>
-      <c r="G138" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>7379</v>
-      </c>
-      <c r="B139" t="s">
-        <v>243</v>
-      </c>
-      <c r="C139" t="s">
-        <v>14</v>
-      </c>
-      <c r="D139" t="s">
-        <v>37</v>
-      </c>
-      <c r="E139" t="s">
-        <v>10</v>
-      </c>
-      <c r="F139" t="s">
-        <v>18</v>
-      </c>
-      <c r="G139" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>5200</v>
-      </c>
-      <c r="B140" t="s">
-        <v>244</v>
-      </c>
-      <c r="C140" t="s">
-        <v>196</v>
-      </c>
-      <c r="D140" t="s">
-        <v>245</v>
-      </c>
-      <c r="E140" t="s">
-        <v>10</v>
-      </c>
-      <c r="F140" t="s">
-        <v>73</v>
-      </c>
-      <c r="G140" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>7394</v>
-      </c>
-      <c r="B141" t="s">
-        <v>246</v>
-      </c>
-      <c r="C141" t="s">
-        <v>63</v>
-      </c>
-      <c r="D141" t="s">
-        <v>15</v>
-      </c>
-      <c r="E141" t="s">
-        <v>10</v>
-      </c>
-      <c r="F141" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>5926</v>
-      </c>
-      <c r="B142" t="s">
-        <v>247</v>
-      </c>
-      <c r="C142" t="s">
-        <v>14</v>
-      </c>
-      <c r="D142" t="s">
-        <v>15</v>
-      </c>
-      <c r="E142" t="s">
-        <v>10</v>
-      </c>
-      <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>6932</v>
-      </c>
-      <c r="B143" t="s">
-        <v>248</v>
-      </c>
-      <c r="C143" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143" t="s">
-        <v>58</v>
-      </c>
-      <c r="E143" t="s">
-        <v>10</v>
-      </c>
-      <c r="F143" t="s">
-        <v>18</v>
-      </c>
-      <c r="G143" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>6831</v>
-      </c>
-      <c r="B144" t="s">
-        <v>249</v>
-      </c>
-      <c r="C144" t="s">
-        <v>21</v>
-      </c>
-      <c r="D144" t="s">
-        <v>37</v>
-      </c>
-      <c r="E144" t="s">
-        <v>10</v>
-      </c>
-      <c r="F144" t="s">
-        <v>23</v>
-      </c>
-      <c r="G144" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>379</v>
-      </c>
-      <c r="B145" t="s">
-        <v>251</v>
-      </c>
-      <c r="C145" t="s">
-        <v>32</v>
-      </c>
-      <c r="D145" t="s">
-        <v>76</v>
-      </c>
-      <c r="E145" t="s">
-        <v>10</v>
-      </c>
-      <c r="F145" t="s">
-        <v>18</v>
-      </c>
-      <c r="G145" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>6372</v>
-      </c>
-      <c r="B146" t="s">
-        <v>252</v>
-      </c>
-      <c r="C146" t="s">
-        <v>32</v>
-      </c>
-      <c r="D146" t="s">
-        <v>33</v>
-      </c>
-      <c r="E146" t="s">
-        <v>10</v>
-      </c>
-      <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>4157</v>
-      </c>
-      <c r="B147" t="s">
-        <v>253</v>
-      </c>
-      <c r="C147" t="s">
-        <v>14</v>
-      </c>
-      <c r="D147" t="s">
-        <v>40</v>
-      </c>
-      <c r="E147" t="s">
-        <v>10</v>
-      </c>
-      <c r="F147" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>6020</v>
-      </c>
-      <c r="B148" t="s">
-        <v>254</v>
-      </c>
-      <c r="C148" t="s">
-        <v>45</v>
-      </c>
-      <c r="D148" t="s">
-        <v>72</v>
-      </c>
-      <c r="E148" t="s">
-        <v>10</v>
-      </c>
-      <c r="F148" t="s">
-        <v>73</v>
-      </c>
-      <c r="G148" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>7362</v>
-      </c>
-      <c r="B149" t="s">
-        <v>256</v>
-      </c>
-      <c r="C149" t="s">
-        <v>8</v>
-      </c>
-      <c r="D149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E149" t="s">
-        <v>10</v>
-      </c>
-      <c r="F149" t="s">
-        <v>18</v>
-      </c>
-      <c r="G149" t="s">
-        <v>124</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D149"/>
+  <autoFilter ref="A1:D120"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>

--- a/Retardos.xlsx
+++ b/Retardos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="238">
   <si>
     <t>No. de empleado</t>
   </si>
@@ -34,601 +34,697 @@
     <t>check de entrada</t>
   </si>
   <si>
-    <t>Abisay Gutierrez Hernandez</t>
+    <t>Abdiel Alonso Gonzalez</t>
   </si>
   <si>
     <t>SERVICIO</t>
   </si>
   <si>
+    <t>MBXA</t>
+  </si>
+  <si>
+    <t>28/08/2023</t>
+  </si>
+  <si>
+    <t>8:30 - 19:00</t>
+  </si>
+  <si>
+    <t>08:37</t>
+  </si>
+  <si>
+    <t>Agustin Gonzalez Perez</t>
+  </si>
+  <si>
+    <t>MBTG</t>
+  </si>
+  <si>
+    <t>8:30 - 18:00</t>
+  </si>
+  <si>
+    <t>08:46</t>
+  </si>
+  <si>
+    <t>Ahtziri Sarahi Rodriguez Fuentes</t>
+  </si>
+  <si>
+    <t>NUEVAS</t>
+  </si>
+  <si>
+    <t>ACVE</t>
+  </si>
+  <si>
+    <t>8:30 - 19:30</t>
+  </si>
+  <si>
+    <t>08:52</t>
+  </si>
+  <si>
+    <t>Alan Ronaldo Gonzalez Corzo</t>
+  </si>
+  <si>
+    <t>Alberto Castro Espinoza</t>
+  </si>
+  <si>
+    <t>CHDM</t>
+  </si>
+  <si>
+    <t>09:06</t>
+  </si>
+  <si>
+    <t>Alberto De Jesus Ruiz Castillo</t>
+  </si>
+  <si>
+    <t>CENTRALIZADOR ADMINISTRACION</t>
+  </si>
+  <si>
+    <t>MBCE</t>
+  </si>
+  <si>
+    <t>08:30 - 17:30</t>
+  </si>
+  <si>
+    <t>08:40</t>
+  </si>
+  <si>
+    <t>Alberto Sanchez Fermin</t>
+  </si>
+  <si>
+    <t>08:32</t>
+  </si>
+  <si>
+    <t>Alejandra Espinos Huerta</t>
+  </si>
+  <si>
+    <t>CENTRALIZADOR OPERATIVO</t>
+  </si>
+  <si>
+    <t>CHVE</t>
+  </si>
+  <si>
+    <t>09:04</t>
+  </si>
+  <si>
+    <t>Alexandra Elizabeth Lara Sanchez</t>
+  </si>
+  <si>
+    <t>HOJALATERIA Y PINTURA</t>
+  </si>
+  <si>
+    <t>Alfonso Fuentes Marin</t>
+  </si>
+  <si>
+    <t>REFACCIONES</t>
+  </si>
+  <si>
+    <t>09:05</t>
+  </si>
+  <si>
+    <t>Alfredo Reyes Aguirre</t>
+  </si>
+  <si>
     <t>MBVE</t>
   </si>
   <si>
-    <t>26/08/2023</t>
-  </si>
-  <si>
-    <t>8:30 - 13:30</t>
+    <t>08:35</t>
+  </si>
+  <si>
+    <t>Alondra Rodriguez Ortega</t>
+  </si>
+  <si>
+    <t>UNIDADES</t>
+  </si>
+  <si>
+    <t>MBCU</t>
+  </si>
+  <si>
+    <t>08:44</t>
+  </si>
+  <si>
+    <t>Amada Lucia Arzaba Salamanca</t>
+  </si>
+  <si>
+    <t>MBCO</t>
+  </si>
+  <si>
+    <t>08:31</t>
+  </si>
+  <si>
+    <t>America Irais Moreno Gamez</t>
+  </si>
+  <si>
+    <t>Ana Gisela Castillo Reyes</t>
+  </si>
+  <si>
+    <t>Ana Michel Espinosa Lagunes</t>
+  </si>
+  <si>
+    <t>MERCADOTECNIA</t>
+  </si>
+  <si>
+    <t>CEEXVE</t>
+  </si>
+  <si>
+    <t>08:34</t>
+  </si>
+  <si>
+    <t>Ana Rosa Gonzalez Almanza</t>
+  </si>
+  <si>
+    <t>EXVE</t>
+  </si>
+  <si>
+    <t>Angel Eduardo Gonzalez Perez</t>
+  </si>
+  <si>
+    <t>MBCI</t>
+  </si>
+  <si>
+    <t>08:42</t>
+  </si>
+  <si>
+    <t>Angel Roman Garcia Garcia</t>
+  </si>
+  <si>
+    <t>SEMINUEVOS</t>
+  </si>
+  <si>
+    <t>09:14</t>
+  </si>
+  <si>
+    <t>Angel Ubaldo Zarate</t>
+  </si>
+  <si>
+    <t>Angel De Jesus Cisneros Bello</t>
+  </si>
+  <si>
+    <t>MBTUKU</t>
+  </si>
+  <si>
+    <t>8:00 - 17:30</t>
+  </si>
+  <si>
+    <t>08:01</t>
+  </si>
+  <si>
+    <t>Angeles Selene Elguea Gonzalez</t>
+  </si>
+  <si>
+    <t>Antonio Bernardo Villanueva Lopez</t>
+  </si>
+  <si>
+    <t>MBCZ</t>
+  </si>
+  <si>
+    <t>08:33</t>
+  </si>
+  <si>
+    <t>Arturo Roman Ballona</t>
+  </si>
+  <si>
+    <t>Arturo Velazquez Diaz</t>
+  </si>
+  <si>
+    <t>09:44</t>
+  </si>
+  <si>
+    <t>Asael Roman Gutierrez</t>
+  </si>
+  <si>
+    <t>08:38</t>
+  </si>
+  <si>
+    <t>Bertha Patricia Zuñiga Rosales</t>
+  </si>
+  <si>
+    <t>CHMO</t>
+  </si>
+  <si>
+    <t>Brenda Ines Olvera Thome</t>
+  </si>
+  <si>
+    <t>BDC VENTAS</t>
+  </si>
+  <si>
+    <t>09:28</t>
+  </si>
+  <si>
+    <t>Brian Rechy Sanchez</t>
   </si>
   <si>
     <t>08:49</t>
   </si>
   <si>
-    <t>Adolfo Olvera Valdivia</t>
-  </si>
-  <si>
-    <t>REFACCIONES</t>
-  </si>
-  <si>
-    <t>MBCO</t>
-  </si>
-  <si>
-    <t>08:46</t>
-  </si>
-  <si>
-    <t>Agustin Gonzalez Perez</t>
-  </si>
-  <si>
-    <t>MBTG</t>
-  </si>
-  <si>
-    <t>09:00 - 14:00</t>
-  </si>
-  <si>
-    <t>09:18</t>
-  </si>
-  <si>
-    <t>Ahtziri Sarahi Rodriguez Fuentes</t>
-  </si>
-  <si>
-    <t>NUEVAS</t>
-  </si>
-  <si>
-    <t>ACVE</t>
+    <t>Candelaria Salazar Mayo</t>
+  </si>
+  <si>
+    <t>09:12</t>
+  </si>
+  <si>
+    <t>Carlos Alejandro Hernandez Zuñiga</t>
+  </si>
+  <si>
+    <t>09:10</t>
+  </si>
+  <si>
+    <t>Carlos Daniel Hernandez Hernandez</t>
+  </si>
+  <si>
+    <t>Carlos Enrique Lozano Lopez</t>
+  </si>
+  <si>
+    <t>Cesar Peregrino Jimenez</t>
+  </si>
+  <si>
+    <t>Cristina Basurto Vazquez</t>
+  </si>
+  <si>
+    <t>08:50</t>
+  </si>
+  <si>
+    <t>Dalia Yaczhintle Garcia Pulido</t>
+  </si>
+  <si>
+    <t>BDC</t>
+  </si>
+  <si>
+    <t>09:02</t>
+  </si>
+  <si>
+    <t>Damaris Carreño Rodriguez</t>
+  </si>
+  <si>
+    <t>Daniel Garcia Hernandez</t>
+  </si>
+  <si>
+    <t>Daniel Perez Torres</t>
+  </si>
+  <si>
+    <t>David Lopez Garcia</t>
+  </si>
+  <si>
+    <t>09:20</t>
+  </si>
+  <si>
+    <t>Diana Laura Fuentes Hernandez</t>
+  </si>
+  <si>
+    <t>CENTRALIZADOR RECURSOS HUMANOS</t>
+  </si>
+  <si>
+    <t>Diana Monserrat Montes Lara</t>
+  </si>
+  <si>
+    <t>09:09</t>
+  </si>
+  <si>
+    <t>Diego Armando Baez Martinez</t>
+  </si>
+  <si>
+    <t>Diego De Jesus Solano Gutierrez</t>
+  </si>
+  <si>
+    <t>08:48</t>
+  </si>
+  <si>
+    <t>Eder Yamil Montero Gomez</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>Edgar Alfonso Garcia Mayorga</t>
+  </si>
+  <si>
+    <t>Edgar Yair Lopez Gonzalez</t>
+  </si>
+  <si>
+    <t>ISPH</t>
   </si>
   <si>
     <t>09:00 - 18:00</t>
   </si>
   <si>
-    <t>09:10</t>
-  </si>
-  <si>
-    <t>Alan Felix Macias</t>
+    <t>Edher Julian Bravo Hernandez</t>
+  </si>
+  <si>
+    <t>CENTRALIZADOR CONTABILIDAD</t>
+  </si>
+  <si>
+    <t>Eduardo Andres Vidaña Clemow</t>
+  </si>
+  <si>
+    <t>Elizabeth Martinez Cuevas</t>
+  </si>
+  <si>
+    <t>CENTRALIZADOR FINANZAS</t>
+  </si>
+  <si>
+    <t>Enrique Muñoz Hernandez</t>
+  </si>
+  <si>
+    <t>Enrique Segura Angel</t>
+  </si>
+  <si>
+    <t>Erendira Alin Enriquez Vallejo</t>
+  </si>
+  <si>
+    <t>08:58</t>
+  </si>
+  <si>
+    <t>Erika Resendiz Mortera</t>
+  </si>
+  <si>
+    <t>Esveidy Paredes Gomez</t>
+  </si>
+  <si>
+    <t>Ewing Lael Rodriguez Ramirez</t>
+  </si>
+  <si>
+    <t>08:41</t>
+  </si>
+  <si>
+    <t>Fernando Garcia Carmona</t>
+  </si>
+  <si>
+    <t>9:00 - 19:00</t>
+  </si>
+  <si>
+    <t>09:08</t>
+  </si>
+  <si>
+    <t>Fernando Masiel Solano Chavarria</t>
+  </si>
+  <si>
+    <t>Fernando Vazquez Hernandez</t>
+  </si>
+  <si>
+    <t>09:07</t>
+  </si>
+  <si>
+    <t>Francisco Javier Gomez Ramirez</t>
+  </si>
+  <si>
+    <t>Francisco Javier Trejo Andrade</t>
+  </si>
+  <si>
+    <t>Fredy Rodriguez Huerta</t>
+  </si>
+  <si>
+    <t>Gabriel Alvarado Guevara</t>
+  </si>
+  <si>
+    <t>Gilberto Hernandez Gutierrez</t>
+  </si>
+  <si>
+    <t>09:39</t>
+  </si>
+  <si>
+    <t>Gilberto Lara Romero</t>
+  </si>
+  <si>
+    <t>Giber Gopar Vargas Camacho</t>
+  </si>
+  <si>
+    <t>Gloria Sandoval Hernandez</t>
+  </si>
+  <si>
+    <t>Gloria Viridiana Ramirez Francisco</t>
+  </si>
+  <si>
+    <t>Hageo Iram Martinez Vega</t>
+  </si>
+  <si>
+    <t>Hector Rodriguez Tapia</t>
+  </si>
+  <si>
+    <t>08:36</t>
+  </si>
+  <si>
+    <t>Hiram Orlando Roman Lopez</t>
+  </si>
+  <si>
+    <t>Homero Huerta Borromeo</t>
+  </si>
+  <si>
+    <t>Hugo Rodriguez Romero</t>
+  </si>
+  <si>
+    <t>Iris Ivonne Valladares Vergara</t>
+  </si>
+  <si>
+    <t>POST VENTA</t>
+  </si>
+  <si>
+    <t>Irving Aldair Dominguez Hernandez</t>
+  </si>
+  <si>
+    <t>Isa Edith Valdez Caballero</t>
+  </si>
+  <si>
+    <t>ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>MBCECO</t>
+  </si>
+  <si>
+    <t>Jefte Reyes Dominguez</t>
+  </si>
+  <si>
+    <t>Jeniffer Yamilhet Bruno Martinez</t>
+  </si>
+  <si>
+    <t>Jessica Ariadna Morales Romero</t>
+  </si>
+  <si>
+    <t>Jesus Fabian Chacha</t>
+  </si>
+  <si>
+    <t>08:59</t>
+  </si>
+  <si>
+    <t>Joaquin De La Cruz Gomez</t>
+  </si>
+  <si>
+    <t>Jorge Alberto Guerra Pastrana</t>
+  </si>
+  <si>
+    <t>Jose Enrique Sarabia Amador</t>
+  </si>
+  <si>
+    <t>Jose Luis Ramon Herce Gonzalez De La Peña</t>
+  </si>
+  <si>
+    <t>GENERALES</t>
+  </si>
+  <si>
+    <t>Jose Manuel Cruz Aguilar</t>
+  </si>
+  <si>
+    <t>Jose Manuel Felix Hernandez</t>
   </si>
   <si>
     <t>MBZA</t>
   </si>
   <si>
-    <t>8:00 - 14:00</t>
+    <t>8:00 - 18:00</t>
+  </si>
+  <si>
+    <t>08:03</t>
+  </si>
+  <si>
+    <t>Jose Manuel Morales Mafara</t>
+  </si>
+  <si>
+    <t>Jose Patricio Alarcon Navarro</t>
+  </si>
+  <si>
+    <t>Jovita Morales Rivera</t>
+  </si>
+  <si>
+    <t>Juan Carlos Guerrero Saenz</t>
+  </si>
+  <si>
+    <t>Karla Candelaria Muñoz Naranjo</t>
+  </si>
+  <si>
+    <t>BDC POST VENTA</t>
+  </si>
+  <si>
+    <t>Katia Karina Mauriño Valerio</t>
+  </si>
+  <si>
+    <t>Kevin De Jesus Morales Garcia</t>
+  </si>
+  <si>
+    <t>08:51</t>
+  </si>
+  <si>
+    <t>Laura Elizabeth Pou Rivera</t>
+  </si>
+  <si>
+    <t>Liliana Ruiz Atrisco</t>
+  </si>
+  <si>
+    <t>Luis Abel Heredia Mendez</t>
+  </si>
+  <si>
+    <t>08:45</t>
+  </si>
+  <si>
+    <t>Luis Alonso Roca De La Torre</t>
+  </si>
+  <si>
+    <t>Luis Bernardo Vargas Gomez</t>
+  </si>
+  <si>
+    <t>Luz Del Carmen Uscanga Hernandez</t>
+  </si>
+  <si>
+    <t>Manuel Genaro Chigo Pelayo</t>
+  </si>
+  <si>
+    <t>Marcela Monroy Margarito</t>
+  </si>
+  <si>
+    <t>Margarita Galicia Aragon</t>
+  </si>
+  <si>
+    <t>Maria Del Carmen Escribano Garcia</t>
+  </si>
+  <si>
+    <t>ADMINISTRACION CORPORATIVA</t>
+  </si>
+  <si>
+    <t>Maria Del Carmen Julian Trapaga</t>
+  </si>
+  <si>
+    <t>MBTU</t>
+  </si>
+  <si>
+    <t>08:10</t>
+  </si>
+  <si>
+    <t>Maria Elena Lopez Vivanco</t>
+  </si>
+  <si>
+    <t>Mauricio Lozano Galvan</t>
+  </si>
+  <si>
+    <t>08:53</t>
+  </si>
+  <si>
+    <t>Michelle De Jesus Gonzalez Cruz</t>
+  </si>
+  <si>
+    <t>Miguel Angel Gonzaga Romero</t>
+  </si>
+  <si>
+    <t>CENTRALIZADOR</t>
+  </si>
+  <si>
+    <t>Miguel Angel Hernandez Montiel</t>
+  </si>
+  <si>
+    <t>Monserrat Rodriguez Sanchez</t>
+  </si>
+  <si>
+    <t>Norma Leticia Reyes Jota</t>
+  </si>
+  <si>
+    <t>09:01</t>
+  </si>
+  <si>
+    <t>Norma Yazmin Malaga Minguez</t>
+  </si>
+  <si>
+    <t>Omar Jacome Valladares</t>
+  </si>
+  <si>
+    <t>Oswaldo Herrera Mendoza</t>
+  </si>
+  <si>
+    <t>Paola Galvan Hernandez</t>
+  </si>
+  <si>
+    <t>Rafael Ivan Balcazar Arenas</t>
+  </si>
+  <si>
+    <t>08:55</t>
+  </si>
+  <si>
+    <t>Ricardo Brambila Corro</t>
+  </si>
+  <si>
+    <t>08:47</t>
+  </si>
+  <si>
+    <t>Ricardo Lara Pestaña</t>
+  </si>
+  <si>
+    <t>08:39</t>
+  </si>
+  <si>
+    <t>Ricardo Mota Garcia</t>
+  </si>
+  <si>
+    <t>Ricardo De Santiago Reyes</t>
+  </si>
+  <si>
+    <t>08:06</t>
+  </si>
+  <si>
+    <t>Rosa Solis Trujillo</t>
+  </si>
+  <si>
+    <t>Roy Martinez Aviles</t>
+  </si>
+  <si>
+    <t>Ruben Aguirre Leon</t>
+  </si>
+  <si>
+    <t>Sandra Yadira Velazquez Sanchez</t>
+  </si>
+  <si>
+    <t>Sarahi Elvira Rendon</t>
+  </si>
+  <si>
+    <t>Saydel Romero Rodriguez</t>
+  </si>
+  <si>
+    <t>Sergio Rosales Hernandez</t>
   </si>
   <si>
     <t>08:02</t>
   </si>
   <si>
-    <t>Alberto De Jesus Ruiz Castillo</t>
-  </si>
-  <si>
-    <t>CENTRALIZADOR ADMINISTRACION</t>
-  </si>
-  <si>
-    <t>MBCE</t>
-  </si>
-  <si>
-    <t>09:16</t>
-  </si>
-  <si>
-    <t>Alexandra Elizabeth Lara Sanchez</t>
-  </si>
-  <si>
-    <t>HOJALATERIA Y PINTURA</t>
-  </si>
-  <si>
-    <t>CHDM</t>
-  </si>
-  <si>
-    <t>09:09</t>
-  </si>
-  <si>
-    <t>Alexis Martinez Uscanga</t>
-  </si>
-  <si>
-    <t>MBCI</t>
-  </si>
-  <si>
-    <t>09:03</t>
-  </si>
-  <si>
-    <t>Alondra Rodriguez Ortega</t>
-  </si>
-  <si>
-    <t>UNIDADES</t>
-  </si>
-  <si>
-    <t>MBCU</t>
-  </si>
-  <si>
-    <t>09:15</t>
-  </si>
-  <si>
-    <t>Amada Lucia Arzaba Salamanca</t>
-  </si>
-  <si>
-    <t>08:31</t>
-  </si>
-  <si>
-    <t>America Irais Moreno Gamez</t>
-  </si>
-  <si>
-    <t>09:06</t>
-  </si>
-  <si>
-    <t>Andrea Stephania Valerio Galvez</t>
-  </si>
-  <si>
-    <t>Andres Ortiz Roldan</t>
-  </si>
-  <si>
-    <t>POST VENTA</t>
-  </si>
-  <si>
-    <t>MBPR</t>
-  </si>
-  <si>
-    <t>09:11</t>
-  </si>
-  <si>
-    <t>Angel Antonio Lopez Rodriguez</t>
-  </si>
-  <si>
-    <t>Angel Eduardo Gonzalez Perez</t>
-  </si>
-  <si>
-    <t>09:02</t>
-  </si>
-  <si>
-    <t>Angel Isaac Lobato Vilorio</t>
-  </si>
-  <si>
-    <t>09:07</t>
-  </si>
-  <si>
-    <t>Angeles Selene Elguea Gonzalez</t>
-  </si>
-  <si>
-    <t>Araceli Cortes Hernandez</t>
-  </si>
-  <si>
-    <t>CHVE</t>
-  </si>
-  <si>
-    <t>09:05</t>
-  </si>
-  <si>
-    <t>Ariana Ramon Islas</t>
-  </si>
-  <si>
-    <t>Armando Dominguez Vazquez</t>
-  </si>
-  <si>
-    <t>MBCZ</t>
-  </si>
-  <si>
-    <t>09:01</t>
-  </si>
-  <si>
-    <t>Armando Romero Huerta</t>
-  </si>
-  <si>
-    <t>08:34</t>
-  </si>
-  <si>
-    <t>Arturo Lucio Jimenez Fierro</t>
-  </si>
-  <si>
-    <t>08:38</t>
-  </si>
-  <si>
-    <t>Brenda Ines Olvera Thome</t>
-  </si>
-  <si>
-    <t>BDC VENTAS</t>
-  </si>
-  <si>
-    <t>09:28</t>
-  </si>
-  <si>
-    <t>Carlos Esteban Caballero Carmona</t>
-  </si>
-  <si>
-    <t>Carlos Manuel Tolentino Hernandez</t>
-  </si>
-  <si>
-    <t>Cesar Peregrino Jimenez</t>
-  </si>
-  <si>
-    <t>09:08</t>
-  </si>
-  <si>
-    <t>Cristina Basurto Vazquez</t>
-  </si>
-  <si>
-    <t>CHMO</t>
-  </si>
-  <si>
-    <t>09:24</t>
-  </si>
-  <si>
-    <t>Cristopher Sanchez Nuñez</t>
-  </si>
-  <si>
-    <t>Dalia Yaczhintle Garcia Pulido</t>
-  </si>
-  <si>
-    <t>BDC</t>
-  </si>
-  <si>
-    <t>Damaris Samanta Melendez Lopez</t>
-  </si>
-  <si>
-    <t>ISVE</t>
-  </si>
-  <si>
-    <t>09:04</t>
-  </si>
-  <si>
-    <t>Daniel Garcia Hernandez</t>
-  </si>
-  <si>
-    <t>David Lopez Garcia</t>
-  </si>
-  <si>
-    <t>09:12</t>
-  </si>
-  <si>
-    <t>Diana Hermida Gonzalez</t>
-  </si>
-  <si>
-    <t>Diego De Jesus Solano Gutierrez</t>
-  </si>
-  <si>
-    <t>09:14</t>
-  </si>
-  <si>
-    <t>Diego Osornio Ortiz</t>
-  </si>
-  <si>
-    <t>Edgar Alfonso Garcia Mayorga</t>
-  </si>
-  <si>
-    <t>Edgar Bernal Guerrero</t>
-  </si>
-  <si>
-    <t>Efrain Santiago Ovando</t>
-  </si>
-  <si>
-    <t>09:43</t>
-  </si>
-  <si>
-    <t>Elizabeth Martinez Reyes</t>
-  </si>
-  <si>
-    <t>Erendira Alin Enriquez Vallejo</t>
-  </si>
-  <si>
-    <t>Eric Adolfo Hernandez Ramirez</t>
-  </si>
-  <si>
-    <t>Erika Martinez Cortes</t>
-  </si>
-  <si>
-    <t>Erika Resendiz Mortera</t>
-  </si>
-  <si>
-    <t>Erving Leonardo Rivera Orozco</t>
-  </si>
-  <si>
-    <t>Fernando Vazquez Hernandez</t>
-  </si>
-  <si>
-    <t>Francisco Javier Pascual Jimenez</t>
-  </si>
-  <si>
-    <t>Fredy Rodriguez Huerta</t>
-  </si>
-  <si>
-    <t>Frida Paola Velazquez Rivera</t>
-  </si>
-  <si>
-    <t>BDC POST VENTA</t>
-  </si>
-  <si>
-    <t>Gloria Sandoval Hernandez</t>
-  </si>
-  <si>
-    <t>08:52</t>
-  </si>
-  <si>
-    <t>Hageo Iram Martinez Vega</t>
-  </si>
-  <si>
-    <t>Heber Alfredo Nieves Barcenas</t>
-  </si>
-  <si>
-    <t>08:33</t>
-  </si>
-  <si>
-    <t>Hector Antonio Carranza Jimenez</t>
-  </si>
-  <si>
-    <t>GRVE</t>
-  </si>
-  <si>
-    <t>Hector Omar Lopez Velez</t>
-  </si>
-  <si>
-    <t>MBXA</t>
-  </si>
-  <si>
-    <t>Herlinda Hernandez Alvarado</t>
-  </si>
-  <si>
-    <t>Hugo Rodriguez Romero</t>
-  </si>
-  <si>
-    <t>Isis Del Carmen Martinez Gutierrez</t>
-  </si>
-  <si>
-    <t>SEMINUEVOS</t>
-  </si>
-  <si>
-    <t>Itzel Hernandez Esquivel</t>
-  </si>
-  <si>
-    <t>Ivan Guerrero Serrano</t>
-  </si>
-  <si>
-    <t>ISPH</t>
-  </si>
-  <si>
-    <t>Jair Luqueño Luciano</t>
-  </si>
-  <si>
-    <t>Jessica Ariadna Morales Romero</t>
-  </si>
-  <si>
-    <t>Jessica Yamili Centeno Aviles</t>
-  </si>
-  <si>
-    <t>Jorge Alberto Lara Pestaña</t>
-  </si>
-  <si>
-    <t>Jose Antonio Verastegui Martinez</t>
-  </si>
-  <si>
-    <t>08:39</t>
-  </si>
-  <si>
-    <t>Jose Armando Molina Bautista</t>
-  </si>
-  <si>
-    <t>Jose Enrique Sarabia Amador</t>
-  </si>
-  <si>
-    <t>09:26</t>
-  </si>
-  <si>
-    <t>Jose Manuel Felix Hernandez</t>
-  </si>
-  <si>
-    <t>08:05</t>
-  </si>
-  <si>
-    <t>Jose Miguel Barrera Arcos</t>
-  </si>
-  <si>
-    <t>Josue Cabrera Cervantes</t>
-  </si>
-  <si>
-    <t>Jovita Morales Rivera</t>
-  </si>
-  <si>
-    <t>Juan Antonio Clemente Moreno</t>
-  </si>
-  <si>
-    <t>MBTUKU</t>
-  </si>
-  <si>
-    <t>08:42</t>
-  </si>
-  <si>
-    <t>Juan Samuel Zarate Rojas</t>
-  </si>
-  <si>
-    <t>Karina Leon Hernandez</t>
-  </si>
-  <si>
-    <t>Karla Arev Velazquez Roldan</t>
-  </si>
-  <si>
-    <t>Karla Candelaria Muñoz Naranjo</t>
-  </si>
-  <si>
-    <t>Karla Ivette Palacios Ramos</t>
-  </si>
-  <si>
-    <t>Katia Karina Mauriño Valerio</t>
-  </si>
-  <si>
-    <t>Kevin De Jesus Morales Garcia</t>
-  </si>
-  <si>
-    <t>Luis Antonio Pacheco Perez</t>
-  </si>
-  <si>
-    <t>Luis Gustavo Beltran Montes</t>
-  </si>
-  <si>
-    <t>Lupita Carmona Simonin</t>
-  </si>
-  <si>
-    <t>Marcela Monroy Margarito</t>
-  </si>
-  <si>
-    <t>08:41</t>
-  </si>
-  <si>
-    <t>Marcos Elias Sanchez Baldizan</t>
-  </si>
-  <si>
-    <t>Margarita Galicia Aragon</t>
-  </si>
-  <si>
-    <t>Maria Del Carmen Julian Trapaga</t>
-  </si>
-  <si>
-    <t>MBTU</t>
-  </si>
-  <si>
-    <t>Maria Del Carmen Muñoz Lopez</t>
-  </si>
-  <si>
-    <t>08:44</t>
-  </si>
-  <si>
-    <t>Maria Elena Lopez Vivanco</t>
-  </si>
-  <si>
-    <t>CENTRALIZADOR OPERATIVO</t>
-  </si>
-  <si>
-    <t>09:13</t>
-  </si>
-  <si>
-    <t>Maria Guadalupe Sanchez Vazquez</t>
-  </si>
-  <si>
-    <t>Maria Monserrat Luciano Huerta</t>
-  </si>
-  <si>
-    <t>08:45</t>
-  </si>
-  <si>
-    <t>Maria De Los Angeles Rodriguez Perez</t>
-  </si>
-  <si>
-    <t>Mayra Hernandez Ramirez</t>
-  </si>
-  <si>
-    <t>Miguel Angel Gonzaga Romero</t>
-  </si>
-  <si>
-    <t>CENTRALIZADOR</t>
-  </si>
-  <si>
-    <t>Miguel Angel Hernandez Montiel</t>
-  </si>
-  <si>
-    <t>Miguel Angel Reyes Rodriguez</t>
-  </si>
-  <si>
-    <t>Neftali Hernandez Vargas</t>
-  </si>
-  <si>
-    <t>Norma Leticia Reyes Jota</t>
-  </si>
-  <si>
-    <t>Norma Yazmin Malaga Minguez</t>
-  </si>
-  <si>
-    <t>Omar De Jesus Alarcon Agama</t>
-  </si>
-  <si>
-    <t>Omar Jacome Valladares</t>
-  </si>
-  <si>
-    <t>Oscar Hermilo Espindola Perez</t>
-  </si>
-  <si>
-    <t>Oscar Vargas Guzman</t>
-  </si>
-  <si>
-    <t>Oswaldo Daniel Lara Sanchez</t>
-  </si>
-  <si>
-    <t>Paola Galvan Hernandez</t>
-  </si>
-  <si>
-    <t>ADMINISTRATIVO</t>
-  </si>
-  <si>
-    <t>Rafael Espinoza Ramirez</t>
-  </si>
-  <si>
-    <t>Ramon Mejia Perez</t>
-  </si>
-  <si>
-    <t>Ricardo Lara Pestaña</t>
-  </si>
-  <si>
-    <t>Ricardo Mota Garcia</t>
-  </si>
-  <si>
-    <t>09:17</t>
-  </si>
-  <si>
-    <t>Ricardo De Santiago Reyes</t>
-  </si>
-  <si>
-    <t>08:07</t>
-  </si>
-  <si>
-    <t>Rodrigo Ramirez Armas</t>
-  </si>
-  <si>
-    <t>Roxana Puig Avila</t>
-  </si>
-  <si>
-    <t>09:21</t>
-  </si>
-  <si>
-    <t>Ruben Maldonado Dolores</t>
-  </si>
-  <si>
-    <t>GENERALES</t>
-  </si>
-  <si>
-    <t>Sarahi Elvira Rendon</t>
-  </si>
-  <si>
-    <t>Sergio Rendon Montes</t>
-  </si>
-  <si>
-    <t>Sergio Rosales Hernandez</t>
-  </si>
-  <si>
-    <t>08:06</t>
+    <t>Sheyla Nicol Meza Aguilar</t>
+  </si>
+  <si>
+    <t>Soledad Hernandez Arano</t>
   </si>
   <si>
     <t>Victor Gabriel Hernandez Tovar</t>
   </si>
   <si>
+    <t>Victor Hugo Alvarado Rebolledo</t>
+  </si>
+  <si>
+    <t>Victor Hugo Vidal Hernandez</t>
+  </si>
+  <si>
+    <t>Victor Manuel Muñoz Tabal</t>
+  </si>
+  <si>
+    <t>08:56</t>
+  </si>
+  <si>
     <t>Virginia Perez Mendez</t>
   </si>
   <si>
-    <t>Virginia Yazmin Galvan Estrada</t>
-  </si>
-  <si>
-    <t>09:19</t>
-  </si>
-  <si>
-    <t>Yadira Loyo Morales</t>
-  </si>
-  <si>
-    <t>Yazheel Ramirez Campos</t>
-  </si>
-  <si>
-    <t>08:50</t>
-  </si>
-  <si>
-    <t>Zaqueo Salas Alvarado</t>
+    <t>Yaeli Gonzalez Barragan</t>
+  </si>
+  <si>
+    <t>Yamiri Alejandra Mendez Torres</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G137"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
@@ -1046,7 +1142,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>7271</v>
+        <v>3933</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1069,22 +1165,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4790</v>
+        <v>7360</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -1092,71 +1188,71 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>7360</v>
+        <v>7036</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>7036</v>
+        <v>7407</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6626</v>
+        <v>7385</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1164,125 +1260,125 @@
         <v>5017</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7020</v>
+        <v>5340</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7116</v>
+        <v>6265</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7289</v>
+        <v>7020</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4209</v>
+        <v>6539</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>6682</v>
+        <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
         <v>43</v>
@@ -1291,159 +1387,159 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>7421</v>
+        <v>7289</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3299</v>
+        <v>4209</v>
       </c>
       <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
         <v>50</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
         <v>51</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>7368</v>
+        <v>6682</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>6680</v>
+        <v>5441</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>7235</v>
+        <v>7010</v>
       </c>
       <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
         <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>7365</v>
+        <v>6402</v>
       </c>
       <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>59</v>
       </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>6164</v>
+        <v>6680</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
@@ -1452,7 +1548,7 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
         <v>62</v>
@@ -1460,565 +1556,565 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>6675</v>
+        <v>6828</v>
       </c>
       <c r="B20" t="s">
         <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>6702</v>
+        <v>6525</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>7226</v>
+        <v>7099</v>
       </c>
       <c r="B22" t="s">
         <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>921</v>
+        <v>7365</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
         <v>15</v>
       </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
       <c r="G23" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>6634</v>
+        <v>7040</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>5696</v>
+        <v>7064</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>6553</v>
+        <v>6331</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>7329</v>
+        <v>971</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>6936</v>
+        <v>7399</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G28" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>7223</v>
+        <v>6634</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>6849</v>
+        <v>7169</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>6900</v>
+        <v>4422</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>5837</v>
+        <v>969</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>3835</v>
+        <v>6989</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>6127</v>
+        <v>3556</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>6893</v>
+        <v>7329</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>7195</v>
+        <v>6936</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G36" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>7270</v>
+        <v>6849</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>6323</v>
+        <v>6358</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>7384</v>
+        <v>5837</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>5349</v>
+        <v>4975</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G40" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>7168</v>
+        <v>3835</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>6607</v>
+        <v>7328</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>6604</v>
+        <v>6548</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>7182</v>
+        <v>6667</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
         <v>43</v>
@@ -2027,829 +2123,829 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>7346</v>
+        <v>6893</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>7208</v>
+        <v>7092</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G46" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>7220</v>
+        <v>7270</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="E47" t="s">
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G47" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>6882</v>
+        <v>7408</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C48" t="s">
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="E48" t="s">
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="G48" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>5675</v>
+        <v>7132</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D49" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>7196</v>
+        <v>7367</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>7011</v>
+        <v>5181</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="D51" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>6616</v>
+        <v>5357</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D52" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
         <v>15</v>
       </c>
-      <c r="E52" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" t="s">
-        <v>11</v>
-      </c>
       <c r="G52" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>7063</v>
+        <v>5778</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>6926</v>
+        <v>7168</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="E54" t="s">
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G54" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>504</v>
+        <v>7182</v>
       </c>
       <c r="B55" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D55" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G55" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>6803</v>
+        <v>7287</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C56" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="D56" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>7034</v>
+        <v>6646</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C57" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D57" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>7156</v>
+        <v>6784</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="G58" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>7053</v>
+        <v>7391</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C59" t="s">
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="E59" t="s">
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G59" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>7344</v>
+        <v>7208</v>
       </c>
       <c r="B60" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C60" t="s">
         <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E60" t="s">
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>6840</v>
+        <v>3969</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="D61" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="E61" t="s">
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>7184</v>
+        <v>7015</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="E62" t="s">
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G62" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>6950</v>
+        <v>6882</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C63" t="s">
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E63" t="s">
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G63" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>7310</v>
+        <v>6662</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E64" t="s">
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>5154</v>
+        <v>7435</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D65" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="E65" t="s">
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G65" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>223</v>
+        <v>5867</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="E66" t="s">
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>7101</v>
+        <v>7261</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C67" t="s">
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G67" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>3138</v>
+        <v>7196</v>
       </c>
       <c r="B68" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="E68" t="s">
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G68" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>7348</v>
+        <v>6322</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D69" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="E69" t="s">
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>6714</v>
+        <v>7011</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C70" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E70" t="s">
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G70" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>7079</v>
+        <v>7393</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C71" t="s">
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="E71" t="s">
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G71" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>7296</v>
+        <v>4944</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D72" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E72" t="s">
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>6898</v>
+        <v>7077</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C73" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="D73" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E73" t="s">
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G73" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>5940</v>
+        <v>6803</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C74" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E74" t="s">
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>7094</v>
+        <v>6218</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C75" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="D75" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E75" t="s">
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G75" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>7281</v>
+        <v>7186</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C76" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D76" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="E76" t="s">
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G76" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>7361</v>
+        <v>6818</v>
       </c>
       <c r="B77" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="D77" t="s">
-        <v>39</v>
+        <v>157</v>
       </c>
       <c r="E77" t="s">
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>6983</v>
+        <v>7378</v>
       </c>
       <c r="B78" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D78" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E78" t="s">
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>3619</v>
+        <v>7167</v>
       </c>
       <c r="B79" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="D79" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E79" t="s">
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>6125</v>
+        <v>6840</v>
       </c>
       <c r="B80" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C80" t="s">
         <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E80" t="s">
         <v>10</v>
@@ -2858,895 +2954,895 @@
         <v>11</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>767</v>
+        <v>7324</v>
       </c>
       <c r="B81" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C81" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D81" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E81" t="s">
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>6609</v>
+        <v>2804</v>
       </c>
       <c r="B82" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C82" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D82" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="E82" t="s">
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>153</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>7343</v>
+        <v>6858</v>
       </c>
       <c r="B83" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D83" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="E83" t="s">
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>703</v>
+        <v>223</v>
       </c>
       <c r="B84" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C84" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D84" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E84" t="s">
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>6994</v>
+        <v>4004</v>
       </c>
       <c r="B85" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="D85" t="s">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="E85" t="s">
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>136</v>
+        <v>1873</v>
       </c>
       <c r="B86" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E86" t="s">
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="G86" t="s">
-        <v>159</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>844</v>
+        <v>7101</v>
       </c>
       <c r="B87" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C87" t="s">
-        <v>161</v>
+        <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="E87" t="s">
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="G87" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>7095</v>
+        <v>6791</v>
       </c>
       <c r="B88" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C88" t="s">
         <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E88" t="s">
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>6970</v>
+        <v>7268</v>
       </c>
       <c r="B89" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D89" t="s">
+        <v>47</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s">
         <v>15</v>
       </c>
-      <c r="E89" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" t="s">
-        <v>11</v>
-      </c>
       <c r="G89" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>7288</v>
+        <v>6714</v>
       </c>
       <c r="B90" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E90" t="s">
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G90" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>6902</v>
+        <v>5182</v>
       </c>
       <c r="B91" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E91" t="s">
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G91" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>6765</v>
+        <v>7094</v>
       </c>
       <c r="B92" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C92" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D92" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E92" t="s">
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G92" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>6867</v>
+        <v>7361</v>
       </c>
       <c r="B93" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C93" t="s">
         <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E93" t="s">
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G93" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>7069</v>
+        <v>6983</v>
       </c>
       <c r="B94" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C94" t="s">
         <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="E94" t="s">
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G94" t="s">
-        <v>66</v>
+        <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>7120</v>
+        <v>3538</v>
       </c>
       <c r="B95" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D95" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="E95" t="s">
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G95" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>5307</v>
+        <v>7157</v>
       </c>
       <c r="B96" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C96" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E96" t="s">
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G96" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>5649</v>
+        <v>7266</v>
       </c>
       <c r="B97" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C97" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="D97" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="E97" t="s">
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>62</v>
+        <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>6851</v>
+        <v>7417</v>
       </c>
       <c r="B98" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D98" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="E98" t="s">
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>5609</v>
+        <v>6971</v>
       </c>
       <c r="B99" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C99" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="E99" t="s">
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>218</v>
+        <v>753</v>
       </c>
       <c r="B100" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E100" t="s">
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G100" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>6246</v>
+        <v>7109</v>
       </c>
       <c r="B101" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D101" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E101" t="s">
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>62</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>6955</v>
+        <v>6609</v>
       </c>
       <c r="B102" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="D102" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="E102" t="s">
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="G102" t="s">
-        <v>58</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>6555</v>
+        <v>703</v>
       </c>
       <c r="B103" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C103" t="s">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="D103" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="E103" t="s">
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>6922</v>
+        <v>5060</v>
       </c>
       <c r="B104" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="D104" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="E104" t="s">
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G104" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1604</v>
+        <v>6994</v>
       </c>
       <c r="B105" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D105" t="s">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c r="E105" t="s">
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="G105" t="s">
-        <v>68</v>
+        <v>196</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>6244</v>
+        <v>844</v>
       </c>
       <c r="B106" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D106" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E106" t="s">
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>6270</v>
+        <v>3307</v>
       </c>
       <c r="B107" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D107" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E107" t="s">
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>7416</v>
+        <v>7008</v>
       </c>
       <c r="B108" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E108" t="s">
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
-        <v>188</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>6341</v>
+        <v>6765</v>
       </c>
       <c r="B109" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E109" t="s">
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G109" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>7267</v>
+        <v>6867</v>
       </c>
       <c r="B110" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D110" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E110" t="s">
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G110" t="s">
-        <v>191</v>
+        <v>95</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>5200</v>
+        <v>7386</v>
       </c>
       <c r="B111" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C111" t="s">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="D111" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E111" t="s">
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G111" t="s">
-        <v>40</v>
+        <v>185</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>6932</v>
+        <v>5307</v>
       </c>
       <c r="B112" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E112" t="s">
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>206</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>7112</v>
+        <v>5649</v>
       </c>
       <c r="B113" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="C113" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="D113" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="E113" t="s">
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G113" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>7279</v>
+        <v>5609</v>
       </c>
       <c r="B114" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D114" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E114" t="s">
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>4157</v>
+        <v>6979</v>
       </c>
       <c r="B115" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C115" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D115" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E115" t="s">
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="G115" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>3846</v>
+        <v>6555</v>
       </c>
       <c r="B116" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C116" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="D116" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="E116" t="s">
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G116" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>6020</v>
+        <v>213</v>
       </c>
       <c r="B117" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C117" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D117" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E117" t="s">
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G117" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>5677</v>
+        <v>7044</v>
       </c>
       <c r="B118" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D118" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="E118" t="s">
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>214</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>7313</v>
+        <v>6244</v>
       </c>
       <c r="B119" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C119" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D119" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E119" t="s">
         <v>10</v>
@@ -3755,34 +3851,425 @@
         <v>11</v>
       </c>
       <c r="G119" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>4010</v>
+        <v>6270</v>
       </c>
       <c r="B120" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="C120" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D120" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="E120" t="s">
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G120" t="s">
-        <v>37</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>7416</v>
+      </c>
+      <c r="B121" t="s">
+        <v>218</v>
+      </c>
+      <c r="C121" t="s">
+        <v>40</v>
+      </c>
+      <c r="D121" t="s">
+        <v>170</v>
+      </c>
+      <c r="E121" t="s">
+        <v>10</v>
+      </c>
+      <c r="F121" t="s">
+        <v>171</v>
+      </c>
+      <c r="G121" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>5666</v>
+      </c>
+      <c r="B122" t="s">
+        <v>220</v>
+      </c>
+      <c r="C122" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122" t="s">
+        <v>35</v>
+      </c>
+      <c r="E122" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122" t="s">
+        <v>20</v>
+      </c>
+      <c r="G122" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>7379</v>
+      </c>
+      <c r="B123" t="s">
+        <v>221</v>
+      </c>
+      <c r="C123" t="s">
+        <v>40</v>
+      </c>
+      <c r="D123" t="s">
+        <v>35</v>
+      </c>
+      <c r="E123" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123" t="s">
+        <v>29</v>
+      </c>
+      <c r="G123" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>5564</v>
+      </c>
+      <c r="B124" t="s">
+        <v>222</v>
+      </c>
+      <c r="C124" t="s">
+        <v>40</v>
+      </c>
+      <c r="D124" t="s">
+        <v>35</v>
+      </c>
+      <c r="E124" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" t="s">
+        <v>29</v>
+      </c>
+      <c r="G124" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>5926</v>
+      </c>
+      <c r="B125" t="s">
+        <v>223</v>
+      </c>
+      <c r="C125" t="s">
+        <v>40</v>
+      </c>
+      <c r="D125" t="s">
+        <v>50</v>
+      </c>
+      <c r="E125" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>6932</v>
+      </c>
+      <c r="B126" t="s">
+        <v>224</v>
+      </c>
+      <c r="C126" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" t="s">
+        <v>43</v>
+      </c>
+      <c r="E126" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126" t="s">
+        <v>29</v>
+      </c>
+      <c r="G126" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>6831</v>
+      </c>
+      <c r="B127" t="s">
+        <v>225</v>
+      </c>
+      <c r="C127" t="s">
+        <v>18</v>
+      </c>
+      <c r="D127" t="s">
+        <v>35</v>
+      </c>
+      <c r="E127" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" t="s">
+        <v>20</v>
+      </c>
+      <c r="G127" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>7279</v>
+      </c>
+      <c r="B128" t="s">
+        <v>226</v>
+      </c>
+      <c r="C128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" t="s">
+        <v>170</v>
+      </c>
+      <c r="E128" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" t="s">
+        <v>171</v>
+      </c>
+      <c r="G128" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>7433</v>
+      </c>
+      <c r="B129" t="s">
+        <v>228</v>
+      </c>
+      <c r="C129" t="s">
+        <v>105</v>
+      </c>
+      <c r="D129" t="s">
+        <v>59</v>
+      </c>
+      <c r="E129" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" t="s">
+        <v>29</v>
+      </c>
+      <c r="G129" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>5408</v>
+      </c>
+      <c r="B130" t="s">
+        <v>229</v>
+      </c>
+      <c r="C130" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" t="s">
+        <v>24</v>
+      </c>
+      <c r="E130" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130" t="s">
+        <v>29</v>
+      </c>
+      <c r="G130" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>4157</v>
+      </c>
+      <c r="B131" t="s">
+        <v>230</v>
+      </c>
+      <c r="C131" t="s">
+        <v>40</v>
+      </c>
+      <c r="D131" t="s">
+        <v>61</v>
+      </c>
+      <c r="E131" t="s">
+        <v>10</v>
+      </c>
+      <c r="F131" t="s">
+        <v>11</v>
+      </c>
+      <c r="G131" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>5661</v>
+      </c>
+      <c r="B132" t="s">
+        <v>231</v>
+      </c>
+      <c r="C132" t="s">
+        <v>38</v>
+      </c>
+      <c r="D132" t="s">
+        <v>24</v>
+      </c>
+      <c r="E132" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132" t="s">
+        <v>29</v>
+      </c>
+      <c r="G132" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>7190</v>
+      </c>
+      <c r="B133" t="s">
+        <v>232</v>
+      </c>
+      <c r="C133" t="s">
+        <v>40</v>
+      </c>
+      <c r="D133" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" t="s">
+        <v>10</v>
+      </c>
+      <c r="F133" t="s">
+        <v>15</v>
+      </c>
+      <c r="G133" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1877</v>
+      </c>
+      <c r="B134" t="s">
+        <v>233</v>
+      </c>
+      <c r="C134" t="s">
+        <v>34</v>
+      </c>
+      <c r="D134" t="s">
+        <v>35</v>
+      </c>
+      <c r="E134" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134" t="s">
+        <v>29</v>
+      </c>
+      <c r="G134" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>3846</v>
+      </c>
+      <c r="B135" t="s">
+        <v>235</v>
+      </c>
+      <c r="C135" t="s">
+        <v>46</v>
+      </c>
+      <c r="D135" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135" t="s">
+        <v>11</v>
+      </c>
+      <c r="G135" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>7362</v>
+      </c>
+      <c r="B136" t="s">
+        <v>236</v>
+      </c>
+      <c r="C136" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" t="s">
+        <v>50</v>
+      </c>
+      <c r="E136" t="s">
+        <v>10</v>
+      </c>
+      <c r="F136" t="s">
+        <v>29</v>
+      </c>
+      <c r="G136" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>7396</v>
+      </c>
+      <c r="B137" t="s">
+        <v>237</v>
+      </c>
+      <c r="C137" t="s">
+        <v>40</v>
+      </c>
+      <c r="D137" t="s">
+        <v>43</v>
+      </c>
+      <c r="E137" t="s">
+        <v>10</v>
+      </c>
+      <c r="F137" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D120"/>
+  <autoFilter ref="A1:D137"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>

--- a/Retardos.xlsx
+++ b/Retardos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="195">
   <si>
     <t>No. de empleado</t>
   </si>
@@ -34,43 +34,409 @@
     <t>check de entrada</t>
   </si>
   <si>
+    <t>Aaron Arturo Roldan Garcia</t>
+  </si>
+  <si>
+    <t>SERVICIO</t>
+  </si>
+  <si>
+    <t>CHVE</t>
+  </si>
+  <si>
+    <t>04/09/2023</t>
+  </si>
+  <si>
+    <t>9:00 - 19:00</t>
+  </si>
+  <si>
+    <t>09:11</t>
+  </si>
+  <si>
+    <t>Abdiel Alonso Gonzalez</t>
+  </si>
+  <si>
+    <t>MBXA</t>
+  </si>
+  <si>
+    <t>8:30 - 19:00</t>
+  </si>
+  <si>
+    <t>08:35</t>
+  </si>
+  <si>
+    <t>Abraham Mendez Hernandez</t>
+  </si>
+  <si>
+    <t>MBCZ</t>
+  </si>
+  <si>
+    <t>8:30 - 18:00</t>
+  </si>
+  <si>
+    <t>08:31</t>
+  </si>
+  <si>
+    <t>Adolfo Olvera Valdivia</t>
+  </si>
+  <si>
+    <t>REFACCIONES</t>
+  </si>
+  <si>
+    <t>MBCO</t>
+  </si>
+  <si>
+    <t>08:41</t>
+  </si>
+  <si>
+    <t>Adriana Ivonne Casarin Galicia</t>
+  </si>
+  <si>
+    <t>ADMINISTRACION CORPORATIVA</t>
+  </si>
+  <si>
+    <t>EXVE</t>
+  </si>
+  <si>
+    <t>08:30 - 17:30</t>
+  </si>
+  <si>
+    <t>08:51</t>
+  </si>
+  <si>
+    <t>Agustin Gonzalez Perez</t>
+  </si>
+  <si>
+    <t>MBTG</t>
+  </si>
+  <si>
+    <t>08:36</t>
+  </si>
+  <si>
+    <t>Ahtziri Sarahi Rodriguez Fuentes</t>
+  </si>
+  <si>
+    <t>NUEVAS</t>
+  </si>
+  <si>
+    <t>ACVE</t>
+  </si>
+  <si>
+    <t>8:30 - 19:30</t>
+  </si>
+  <si>
+    <t>08:49</t>
+  </si>
+  <si>
     <t>Alan Felix Macias</t>
   </si>
   <si>
-    <t>REFACCIONES</t>
-  </si>
-  <si>
     <t>MBZA</t>
   </si>
   <si>
-    <t>01/09/2023</t>
-  </si>
-  <si>
     <t>8:00 - 18:00</t>
   </si>
   <si>
-    <t>08:04</t>
-  </si>
-  <si>
-    <t>Alfredo Valle Ponce</t>
+    <t>08:03</t>
+  </si>
+  <si>
+    <t>Alberto Castro Espinoza</t>
+  </si>
+  <si>
+    <t>CHDM</t>
+  </si>
+  <si>
+    <t>08:57</t>
+  </si>
+  <si>
+    <t>Alberto De Jesus Ruiz Castillo</t>
+  </si>
+  <si>
+    <t>CENTRALIZADOR ADMINISTRACION</t>
+  </si>
+  <si>
+    <t>MBCE</t>
+  </si>
+  <si>
+    <t>Alberto Sanchez Fermin</t>
+  </si>
+  <si>
+    <t>Alejandra Espinos Huerta</t>
+  </si>
+  <si>
+    <t>CENTRALIZADOR OPERATIVO</t>
+  </si>
+  <si>
+    <t>Alejandro Rodriguez Celis</t>
+  </si>
+  <si>
+    <t>UNIDADES</t>
+  </si>
+  <si>
+    <t>MBVE</t>
+  </si>
+  <si>
+    <t>Alejandro Rosas Tapia</t>
+  </si>
+  <si>
+    <t>08:34</t>
+  </si>
+  <si>
+    <t>Alondra Rodriguez Ortega</t>
+  </si>
+  <si>
+    <t>MBCU</t>
+  </si>
+  <si>
+    <t>08:40</t>
+  </si>
+  <si>
+    <t>Ana Luisa Garcia Portilla</t>
   </si>
   <si>
     <t>ADMINISTRATIVO</t>
   </si>
   <si>
-    <t>MBVE</t>
-  </si>
-  <si>
-    <t>08:30 - 17:30</t>
-  </si>
-  <si>
-    <t>08:31</t>
-  </si>
-  <si>
-    <t>Angel De Jesus Cisneros Bello</t>
-  </si>
-  <si>
-    <t>SERVICIO</t>
+    <t>Ana Minerva Arellano Vargas</t>
+  </si>
+  <si>
+    <t>ISPH</t>
+  </si>
+  <si>
+    <t>09:00 - 18:00</t>
+  </si>
+  <si>
+    <t>09:01</t>
+  </si>
+  <si>
+    <t>Andrea Stephania Valerio Galvez</t>
+  </si>
+  <si>
+    <t>09:00 - 19:30</t>
+  </si>
+  <si>
+    <t>Angel Eduardo Gonzalez Perez</t>
+  </si>
+  <si>
+    <t>MBCI</t>
+  </si>
+  <si>
+    <t>08:42</t>
+  </si>
+  <si>
+    <t>Apolinar Rafael Landa Rivera</t>
+  </si>
+  <si>
+    <t>08:32</t>
+  </si>
+  <si>
+    <t>Arturo Lucio Jimenez Fierro</t>
+  </si>
+  <si>
+    <t>08:45</t>
+  </si>
+  <si>
+    <t>Bertha Patricia Zuñiga Rosales</t>
+  </si>
+  <si>
+    <t>CHMO</t>
+  </si>
+  <si>
+    <t>08:59</t>
+  </si>
+  <si>
+    <t>Brenda Ines Olvera Thome</t>
+  </si>
+  <si>
+    <t>BDC VENTAS</t>
+  </si>
+  <si>
+    <t>09:28</t>
+  </si>
+  <si>
+    <t>Candelaria Salazar Mayo</t>
+  </si>
+  <si>
+    <t>09:14</t>
+  </si>
+  <si>
+    <t>Carlos Enrique Lozano Lopez</t>
+  </si>
+  <si>
+    <t>Carlos Juan Diaz Gonzalez</t>
+  </si>
+  <si>
+    <t>09:34</t>
+  </si>
+  <si>
+    <t>Cristina Basurto Vazquez</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>Dafne Yamari Barragan Zapata</t>
+  </si>
+  <si>
+    <t>GENERALES</t>
+  </si>
+  <si>
+    <t>09:03</t>
+  </si>
+  <si>
+    <t>Dalia Yaczhintle Garcia Pulido</t>
+  </si>
+  <si>
+    <t>BDC</t>
+  </si>
+  <si>
+    <t>09:16</t>
+  </si>
+  <si>
+    <t>Daniel Perez Torres</t>
+  </si>
+  <si>
+    <t>SEMINUEVOS</t>
+  </si>
+  <si>
+    <t>08:47</t>
+  </si>
+  <si>
+    <t>David Lopez Garcia</t>
+  </si>
+  <si>
+    <t>HOJALATERIA Y PINTURA</t>
+  </si>
+  <si>
+    <t>Diana Monserrat Montes Lara</t>
+  </si>
+  <si>
+    <t>08:56</t>
+  </si>
+  <si>
+    <t>Diego De Jesus Solano Gutierrez</t>
+  </si>
+  <si>
+    <t>08:44</t>
+  </si>
+  <si>
+    <t>Diego Osornio Ortiz</t>
+  </si>
+  <si>
+    <t>Eder Yamil Montero Gomez</t>
+  </si>
+  <si>
+    <t>Edgar Alfonso Garcia Mayorga</t>
+  </si>
+  <si>
+    <t>08:37</t>
+  </si>
+  <si>
+    <t>Edher Julian Bravo Hernandez</t>
+  </si>
+  <si>
+    <t>CENTRALIZADOR CONTABILIDAD</t>
+  </si>
+  <si>
+    <t>CEEXVE</t>
+  </si>
+  <si>
+    <t>Eduardo Diaz Sandoval</t>
+  </si>
+  <si>
+    <t>Efrain Santiago Ovando</t>
+  </si>
+  <si>
+    <t>Elizabeth Lazaro Quiroga</t>
+  </si>
+  <si>
+    <t>Elizabeth Martinez Cuevas</t>
+  </si>
+  <si>
+    <t>CENTRALIZADOR FINANZAS</t>
+  </si>
+  <si>
+    <t>Elizabeth Martinez Reyes</t>
+  </si>
+  <si>
+    <t>Erendira Alin Enriquez Vallejo</t>
+  </si>
+  <si>
+    <t>09:05</t>
+  </si>
+  <si>
+    <t>Esveidy Paredes Gomez</t>
+  </si>
+  <si>
+    <t>Ewing Lael Rodriguez Ramirez</t>
+  </si>
+  <si>
+    <t>Fernando Masiel Solano Chavarria</t>
+  </si>
+  <si>
+    <t>Fernando Vazquez Hernandez</t>
+  </si>
+  <si>
+    <t>09:07</t>
+  </si>
+  <si>
+    <t>Francisco Aldazaba Salinas</t>
+  </si>
+  <si>
+    <t>Francisco Javier Gomez Ramirez</t>
+  </si>
+  <si>
+    <t>Gerardo Galvan Chavez</t>
+  </si>
+  <si>
+    <t>CENTRALIZADOR SISTEMAS</t>
+  </si>
+  <si>
+    <t>Gilberto Lara Romero</t>
+  </si>
+  <si>
+    <t>Giovanni Arena Pimentel</t>
+  </si>
+  <si>
+    <t>Giber Gopar Vargas Camacho</t>
+  </si>
+  <si>
+    <t>Hugo Rodriguez Romero</t>
+  </si>
+  <si>
+    <t>Iris Ivonne Valladares Vergara</t>
+  </si>
+  <si>
+    <t>POST VENTA</t>
+  </si>
+  <si>
+    <t>Ivan Guerrero Serrano</t>
+  </si>
+  <si>
+    <t>Jacob Rafael Ramirez Garcia</t>
+  </si>
+  <si>
+    <t>Jeniffer Yamilhet Bruno Martinez</t>
+  </si>
+  <si>
+    <t>Jessica Escalante Valencia</t>
+  </si>
+  <si>
+    <t>Jesus Antonio Aguilar Sanchez</t>
+  </si>
+  <si>
+    <t>Jorge Alberto Esteves Illescas</t>
+  </si>
+  <si>
+    <t>Jose Enrique Sarabia Amador</t>
+  </si>
+  <si>
+    <t>Jose Patricio Alarcon Navarro</t>
+  </si>
+  <si>
+    <t>08:50</t>
+  </si>
+  <si>
+    <t>Juan Antonio Clemente Moreno</t>
   </si>
   <si>
     <t>MBTUKU</t>
@@ -79,16 +445,43 @@
     <t>8:00 - 17:30</t>
   </si>
   <si>
-    <t>08:02</t>
-  </si>
-  <si>
-    <t>Carlos Ivan Rodriguez Flores</t>
-  </si>
-  <si>
-    <t>8:30 - 19:00</t>
-  </si>
-  <si>
-    <t>08:32</t>
+    <t>08:11</t>
+  </si>
+  <si>
+    <t>Juan Pablo Perez Nafate</t>
+  </si>
+  <si>
+    <t>08:38</t>
+  </si>
+  <si>
+    <t>Karina Leon Hernandez</t>
+  </si>
+  <si>
+    <t>BDC POST VENTA</t>
+  </si>
+  <si>
+    <t>09:04</t>
+  </si>
+  <si>
+    <t>Karla Candelaria Muñoz Naranjo</t>
+  </si>
+  <si>
+    <t>Kevin De Jesus Morales Garcia</t>
+  </si>
+  <si>
+    <t>Laura Elizabeth Pou Rivera</t>
+  </si>
+  <si>
+    <t>Leobardo Moreno Ramos</t>
+  </si>
+  <si>
+    <t>Luis Abel Heredia Mendez</t>
+  </si>
+  <si>
+    <t>08:48</t>
+  </si>
+  <si>
+    <t>Luis Alfredo Alarcon Martinez</t>
   </si>
   <si>
     <t>Luis Alonso Roca De La Torre</t>
@@ -97,43 +490,112 @@
     <t>08:01</t>
   </si>
   <si>
+    <t>Luis Fernando Hernandez Muñoz</t>
+  </si>
+  <si>
+    <t>Luis Gustavo Beltran Montes</t>
+  </si>
+  <si>
+    <t>Manuel Genaro Chigo Pelayo</t>
+  </si>
+  <si>
     <t>Marcela Monroy Margarito</t>
   </si>
   <si>
-    <t>POST VENTA</t>
-  </si>
-  <si>
-    <t>Maria Monserrat Luciano Huerta</t>
-  </si>
-  <si>
-    <t>MBCO</t>
-  </si>
-  <si>
-    <t>Mauricio Rosales Alvarez</t>
-  </si>
-  <si>
-    <t>UNIDADES</t>
-  </si>
-  <si>
-    <t>Miguel Angel Reyes Rodriguez</t>
-  </si>
-  <si>
-    <t>ISVE</t>
-  </si>
-  <si>
-    <t>Osmar Josuhe Jimenez Santos</t>
-  </si>
-  <si>
-    <t>Ricardo De Santiago Reyes</t>
-  </si>
-  <si>
-    <t>Sarahi Elvira Rendon</t>
-  </si>
-  <si>
-    <t>Sergio Ivan Martinez Altamirano</t>
-  </si>
-  <si>
-    <t>Yaeli Gonzalez Barragan</t>
+    <t>08:05</t>
+  </si>
+  <si>
+    <t>Maria Del Carmen Escribano Garcia</t>
+  </si>
+  <si>
+    <t>Maria Del Carmen Muñoz Lopez</t>
+  </si>
+  <si>
+    <t>Maria Elena Lopez Vivanco</t>
+  </si>
+  <si>
+    <t>Martin Reyes Morales</t>
+  </si>
+  <si>
+    <t>08:33</t>
+  </si>
+  <si>
+    <t>Maria Fernanda Balderas Sierra</t>
+  </si>
+  <si>
+    <t>Mauricio Lozano Galvan</t>
+  </si>
+  <si>
+    <t>Mayra Scarlett Rodriguez Cano</t>
+  </si>
+  <si>
+    <t>Michelle De Jesus Gonzalez Cruz</t>
+  </si>
+  <si>
+    <t>Miguel Angel Gonzaga Romero</t>
+  </si>
+  <si>
+    <t>CENTRALIZADOR</t>
+  </si>
+  <si>
+    <t>08:39</t>
+  </si>
+  <si>
+    <t>Miguel Angel Hernandez Montiel</t>
+  </si>
+  <si>
+    <t>Monserrat Rodriguez Sanchez</t>
+  </si>
+  <si>
+    <t>Norma Leticia Reyes Jota</t>
+  </si>
+  <si>
+    <t>09:41</t>
+  </si>
+  <si>
+    <t>Omar Jacome Valladares</t>
+  </si>
+  <si>
+    <t>Ramon Treviño Sagrero</t>
+  </si>
+  <si>
+    <t>Ruben Aguirre Leon</t>
+  </si>
+  <si>
+    <t>Salvador Martinez Mendoza</t>
+  </si>
+  <si>
+    <t>Saydel Romero Rodriguez</t>
+  </si>
+  <si>
+    <t>09:13</t>
+  </si>
+  <si>
+    <t>Sheyla Nicol Meza Aguilar</t>
+  </si>
+  <si>
+    <t>CENTRALIZADOR RECURSOS HUMANOS</t>
+  </si>
+  <si>
+    <t>Tamara Hernandez Utrera</t>
+  </si>
+  <si>
+    <t>Teresa Juarez Santos</t>
+  </si>
+  <si>
+    <t>MBAC</t>
+  </si>
+  <si>
+    <t>09:02</t>
+  </si>
+  <si>
+    <t>Veronica Jimenez Hermida</t>
+  </si>
+  <si>
+    <t>Victor Hugo Alvarado Rebolledo</t>
+  </si>
+  <si>
+    <t>Viridiana Lizeth Aragon Alfonso</t>
   </si>
 </sst>
 </file>
@@ -516,7 +978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G101"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
@@ -551,7 +1013,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>6626</v>
+        <v>7419</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -574,305 +1036,2283 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3811</v>
+        <v>3933</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>7099</v>
+        <v>7345</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4688</v>
+        <v>4790</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>7417</v>
+        <v>598</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6609</v>
+        <v>7360</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6970</v>
+        <v>7036</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6733</v>
+        <v>6626</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7069</v>
+        <v>7385</v>
       </c>
       <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>7135</v>
+        <v>5017</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>7416</v>
+        <v>5340</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>6932</v>
+        <v>6265</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>7354</v>
+        <v>6690</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>7362</v>
+        <v>7315</v>
       </c>
       <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7289</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6947</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>7162</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7421</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>6680</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1947</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>921</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>7399</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>6634</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4422</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3556</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>7383</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>6936</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>6891</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>6849</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4975</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3835</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>6548</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>6893</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>7195</v>
+      </c>
+      <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>7092</v>
+      </c>
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>7270</v>
+      </c>
+      <c r="B37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>7132</v>
+      </c>
+      <c r="B38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>578</v>
+      </c>
+      <c r="B39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>7384</v>
+      </c>
+      <c r="B40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4374</v>
+      </c>
+      <c r="B41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>5181</v>
+      </c>
+      <c r="B42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>5349</v>
+      </c>
+      <c r="B43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>7168</v>
+      </c>
+      <c r="B44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>7287</v>
+      </c>
+      <c r="B45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>6646</v>
+      </c>
+      <c r="B46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>7391</v>
+      </c>
+      <c r="B47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>7208</v>
+      </c>
+      <c r="B48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>7173</v>
+      </c>
+      <c r="B49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>3969</v>
+      </c>
+      <c r="B50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>7377</v>
+      </c>
+      <c r="B51" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>5867</v>
+      </c>
+      <c r="B52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>5151</v>
+      </c>
+      <c r="B53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>7261</v>
+      </c>
+      <c r="B54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>6803</v>
+      </c>
+      <c r="B55" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>36</v>
+      </c>
+      <c r="G55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>6218</v>
+      </c>
+      <c r="B56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" t="s">
+        <v>57</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>7053</v>
+      </c>
+      <c r="B57" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>62</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>5294</v>
+      </c>
+      <c r="B58" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>66</v>
+      </c>
+      <c r="G58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>7167</v>
+      </c>
+      <c r="B59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" t="s">
+        <v>108</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>7133</v>
+      </c>
+      <c r="B60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>7154</v>
+      </c>
+      <c r="B61" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>811</v>
+      </c>
+      <c r="B62" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" t="s">
+        <v>43</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>28</v>
+      </c>
+      <c r="G62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>223</v>
+      </c>
+      <c r="B63" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" t="s">
+        <v>53</v>
+      </c>
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>7268</v>
+      </c>
+      <c r="B64" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>7079</v>
+      </c>
+      <c r="B65" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>142</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
+        <v>143</v>
+      </c>
+      <c r="G65" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>7188</v>
+      </c>
+      <c r="B66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>6898</v>
+      </c>
+      <c r="B67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
+        <v>63</v>
+      </c>
+      <c r="G67" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>7094</v>
+      </c>
+      <c r="B68" t="s">
+        <v>150</v>
+      </c>
+      <c r="C68" t="s">
+        <v>148</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s">
+        <v>63</v>
+      </c>
+      <c r="G68" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>6983</v>
+      </c>
+      <c r="B69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>47</v>
+      </c>
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>3538</v>
+      </c>
+      <c r="B70" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
+        <v>28</v>
+      </c>
+      <c r="G70" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>7042</v>
+      </c>
+      <c r="B71" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>53</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>28</v>
+      </c>
+      <c r="G71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>7266</v>
+      </c>
+      <c r="B72" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" t="s">
+        <v>97</v>
+      </c>
+      <c r="D72" t="s">
+        <v>43</v>
+      </c>
+      <c r="E72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>3135</v>
+      </c>
+      <c r="B73" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" t="s">
+        <v>63</v>
+      </c>
+      <c r="G73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>7417</v>
+      </c>
+      <c r="B74" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
         <v>40</v>
       </c>
-      <c r="C15" t="s">
+      <c r="G74" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>7342</v>
+      </c>
+      <c r="B75" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
         <v>19</v>
       </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G75" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>6125</v>
+      </c>
+      <c r="B76" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" t="s">
+        <v>28</v>
+      </c>
+      <c r="G76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>7109</v>
+      </c>
+      <c r="B77" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" t="s">
+        <v>97</v>
+      </c>
+      <c r="D77" t="s">
+        <v>43</v>
+      </c>
+      <c r="E77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" t="s">
+        <v>28</v>
+      </c>
+      <c r="G77" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>6609</v>
+      </c>
+      <c r="B78" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" t="s">
+        <v>131</v>
+      </c>
+      <c r="D78" t="s">
+        <v>142</v>
+      </c>
+      <c r="E78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s">
+        <v>143</v>
+      </c>
+      <c r="G78" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>5060</v>
+      </c>
+      <c r="B79" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s">
+        <v>28</v>
+      </c>
+      <c r="G79" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>136</v>
+      </c>
+      <c r="B80" t="s">
+        <v>165</v>
+      </c>
+      <c r="C80" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>844</v>
+      </c>
+      <c r="B81" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>28</v>
+      </c>
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>570</v>
+      </c>
+      <c r="B82" t="s">
+        <v>167</v>
+      </c>
+      <c r="C82" t="s">
+        <v>107</v>
+      </c>
+      <c r="D82" t="s">
+        <v>108</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>28</v>
+      </c>
+      <c r="G82" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>7401</v>
+      </c>
+      <c r="B83" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" t="s">
+        <v>46</v>
+      </c>
+      <c r="D83" t="s">
+        <v>47</v>
+      </c>
+      <c r="E83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s">
+        <v>28</v>
+      </c>
+      <c r="G83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>3307</v>
+      </c>
+      <c r="B84" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" t="s">
+        <v>46</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" t="s">
+        <v>28</v>
+      </c>
+      <c r="G84" t="s">
         <v>16</v>
       </c>
-      <c r="G15" t="s">
-        <v>17</v>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>6750</v>
+      </c>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" t="s">
+        <v>97</v>
+      </c>
+      <c r="D85" t="s">
+        <v>43</v>
+      </c>
+      <c r="E85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
+        <v>28</v>
+      </c>
+      <c r="G85" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>7008</v>
+      </c>
+      <c r="B86" t="s">
+        <v>172</v>
+      </c>
+      <c r="C86" t="s">
+        <v>46</v>
+      </c>
+      <c r="D86" t="s">
+        <v>47</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>28</v>
+      </c>
+      <c r="G86" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>6765</v>
+      </c>
+      <c r="B87" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" t="s">
+        <v>174</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" t="s">
+        <v>28</v>
+      </c>
+      <c r="G87" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>6867</v>
+      </c>
+      <c r="B88" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>57</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
+        <v>19</v>
+      </c>
+      <c r="G88" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>7386</v>
+      </c>
+      <c r="B89" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" t="s">
+        <v>43</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s">
+        <v>36</v>
+      </c>
+      <c r="G89" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>5307</v>
+      </c>
+      <c r="B90" t="s">
+        <v>178</v>
+      </c>
+      <c r="C90" t="s">
+        <v>78</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" t="s">
+        <v>66</v>
+      </c>
+      <c r="G90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>5609</v>
+      </c>
+      <c r="B91" t="s">
+        <v>180</v>
+      </c>
+      <c r="C91" t="s">
+        <v>97</v>
+      </c>
+      <c r="D91" t="s">
+        <v>43</v>
+      </c>
+      <c r="E91" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" t="s">
+        <v>28</v>
+      </c>
+      <c r="G91" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>5360</v>
+      </c>
+      <c r="B92" t="s">
+        <v>181</v>
+      </c>
+      <c r="C92" t="s">
+        <v>88</v>
+      </c>
+      <c r="D92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>5564</v>
+      </c>
+      <c r="B93" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" t="s">
+        <v>63</v>
+      </c>
+      <c r="G93" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>7394</v>
+      </c>
+      <c r="B94" t="s">
+        <v>183</v>
+      </c>
+      <c r="C94" t="s">
+        <v>94</v>
+      </c>
+      <c r="D94" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>6831</v>
+      </c>
+      <c r="B95" t="s">
+        <v>184</v>
+      </c>
+      <c r="C95" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" t="s">
+        <v>66</v>
+      </c>
+      <c r="G95" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>7433</v>
+      </c>
+      <c r="B96" t="s">
+        <v>186</v>
+      </c>
+      <c r="C96" t="s">
+        <v>187</v>
+      </c>
+      <c r="D96" t="s">
+        <v>27</v>
+      </c>
+      <c r="E96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" t="s">
+        <v>28</v>
+      </c>
+      <c r="G96" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>5024</v>
+      </c>
+      <c r="B97" t="s">
+        <v>188</v>
+      </c>
+      <c r="C97" t="s">
+        <v>52</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>6827</v>
+      </c>
+      <c r="B98" t="s">
+        <v>189</v>
+      </c>
+      <c r="C98" t="s">
+        <v>88</v>
+      </c>
+      <c r="D98" t="s">
+        <v>190</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" t="s">
+        <v>19</v>
+      </c>
+      <c r="G98" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2207</v>
+      </c>
+      <c r="B99" t="s">
+        <v>192</v>
+      </c>
+      <c r="C99" t="s">
+        <v>46</v>
+      </c>
+      <c r="D99" t="s">
+        <v>47</v>
+      </c>
+      <c r="E99" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" t="s">
+        <v>28</v>
+      </c>
+      <c r="G99" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>5661</v>
+      </c>
+      <c r="B100" t="s">
+        <v>193</v>
+      </c>
+      <c r="C100" t="s">
+        <v>97</v>
+      </c>
+      <c r="D100" t="s">
+        <v>43</v>
+      </c>
+      <c r="E100" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" t="s">
+        <v>28</v>
+      </c>
+      <c r="G100" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>6837</v>
+      </c>
+      <c r="B101" t="s">
+        <v>194</v>
+      </c>
+      <c r="C101" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" t="s">
+        <v>53</v>
+      </c>
+      <c r="E101" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D15"/>
+  <autoFilter ref="A1:D101"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>

--- a/Retardos.xlsx
+++ b/Retardos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="178">
   <si>
     <t>No. de empleado</t>
   </si>
@@ -34,568 +34,517 @@
     <t>check de entrada</t>
   </si>
   <si>
-    <t>Aaron Arturo Roldan Garcia</t>
+    <t>Abdiel Alonso Gonzalez</t>
   </si>
   <si>
     <t>SERVICIO</t>
   </si>
   <si>
+    <t>MBXA</t>
+  </si>
+  <si>
+    <t>08/09/2023</t>
+  </si>
+  <si>
+    <t>8:30 - 19:00</t>
+  </si>
+  <si>
+    <t>08:31</t>
+  </si>
+  <si>
+    <t>Abraham Mendez Hernandez</t>
+  </si>
+  <si>
+    <t>MBCZ</t>
+  </si>
+  <si>
+    <t>8:30 - 18:00</t>
+  </si>
+  <si>
+    <t>08:34</t>
+  </si>
+  <si>
+    <t>Adolfo Olvera Valdivia</t>
+  </si>
+  <si>
+    <t>REFACCIONES</t>
+  </si>
+  <si>
+    <t>MBCO</t>
+  </si>
+  <si>
+    <t>Adriana Ivonne Casarin Galicia</t>
+  </si>
+  <si>
+    <t>ADMINISTRACION CORPORATIVA</t>
+  </si>
+  <si>
+    <t>EXVE</t>
+  </si>
+  <si>
+    <t>08:30 - 17:30</t>
+  </si>
+  <si>
+    <t>08:48</t>
+  </si>
+  <si>
+    <t>Ahtziri Sarahi Rodriguez Fuentes</t>
+  </si>
+  <si>
+    <t>NUEVAS</t>
+  </si>
+  <si>
+    <t>ACVE</t>
+  </si>
+  <si>
+    <t>8:30 - 19:30</t>
+  </si>
+  <si>
+    <t>09:04</t>
+  </si>
+  <si>
+    <t>Alberto Castro Espinoza</t>
+  </si>
+  <si>
+    <t>CHDM</t>
+  </si>
+  <si>
+    <t>09:05</t>
+  </si>
+  <si>
+    <t>Alberto Sanchez Fermin</t>
+  </si>
+  <si>
+    <t>MBTG</t>
+  </si>
+  <si>
+    <t>08:32</t>
+  </si>
+  <si>
+    <t>Aldo Ramirez Robles</t>
+  </si>
+  <si>
+    <t>09:32</t>
+  </si>
+  <si>
+    <t>Alejandro Rosas Tapia</t>
+  </si>
+  <si>
+    <t>08:33</t>
+  </si>
+  <si>
+    <t>Alexandra Elizabeth Lara Sanchez</t>
+  </si>
+  <si>
+    <t>HOJALATERIA Y PINTURA</t>
+  </si>
+  <si>
+    <t>Alexis Martinez Uscanga</t>
+  </si>
+  <si>
+    <t>MBCI</t>
+  </si>
+  <si>
+    <t>Alfonso Fuentes Marin</t>
+  </si>
+  <si>
     <t>CHVE</t>
   </si>
   <si>
-    <t>04/09/2023</t>
+    <t>09:00 - 18:00</t>
+  </si>
+  <si>
+    <t>09:11</t>
+  </si>
+  <si>
+    <t>Ana Luisa Garcia Portilla</t>
+  </si>
+  <si>
+    <t>ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>MBVE</t>
+  </si>
+  <si>
+    <t>08:38</t>
+  </si>
+  <si>
+    <t>Andrea Stephania Valerio Galvez</t>
+  </si>
+  <si>
+    <t>09:00 - 19:30</t>
+  </si>
+  <si>
+    <t>09:07</t>
+  </si>
+  <si>
+    <t>Angel Eduardo Gonzalez Perez</t>
+  </si>
+  <si>
+    <t>Bertha Patricia Zuñiga Rosales</t>
+  </si>
+  <si>
+    <t>CHMO</t>
+  </si>
+  <si>
+    <t>08:51</t>
+  </si>
+  <si>
+    <t>Brenda Ines Olvera Thome</t>
+  </si>
+  <si>
+    <t>BDC VENTAS</t>
+  </si>
+  <si>
+    <t>09:23</t>
+  </si>
+  <si>
+    <t>Candelaria Salazar Mayo</t>
+  </si>
+  <si>
+    <t>09:14</t>
+  </si>
+  <si>
+    <t>Carlos Daniel Hernandez Hernandez</t>
+  </si>
+  <si>
+    <t>08:44</t>
+  </si>
+  <si>
+    <t>Carlos Juan Diaz Gonzalez</t>
+  </si>
+  <si>
+    <t>10:01</t>
+  </si>
+  <si>
+    <t>Cristina Basurto Vazquez</t>
+  </si>
+  <si>
+    <t>08:57</t>
+  </si>
+  <si>
+    <t>Dalia Yaczhintle Garcia Pulido</t>
+  </si>
+  <si>
+    <t>BDC</t>
+  </si>
+  <si>
+    <t>09:09</t>
+  </si>
+  <si>
+    <t>Daniel Perez Torres</t>
+  </si>
+  <si>
+    <t>SEMINUEVOS</t>
+  </si>
+  <si>
+    <t>08:56</t>
+  </si>
+  <si>
+    <t>David Lopez Garcia</t>
+  </si>
+  <si>
+    <t>Delia Espejo Gonzalez</t>
+  </si>
+  <si>
+    <t>GENERALES</t>
+  </si>
+  <si>
+    <t>07:00 - 16:00</t>
+  </si>
+  <si>
+    <t>07:25</t>
+  </si>
+  <si>
+    <t>Diana Monserrat Montes Lara</t>
+  </si>
+  <si>
+    <t>09:06</t>
+  </si>
+  <si>
+    <t>Diego De Jesus Solano Gutierrez</t>
+  </si>
+  <si>
+    <t>Diego Osornio Ortiz</t>
+  </si>
+  <si>
+    <t>08:46</t>
+  </si>
+  <si>
+    <t>Edgar Alfonso Garcia Mayorga</t>
+  </si>
+  <si>
+    <t>MBCU</t>
+  </si>
+  <si>
+    <t>08:35</t>
+  </si>
+  <si>
+    <t>Edher Julian Bravo Hernandez</t>
+  </si>
+  <si>
+    <t>CENTRALIZADOR CONTABILIDAD</t>
+  </si>
+  <si>
+    <t>CEEXVE</t>
+  </si>
+  <si>
+    <t>Eduardo Andres Vidaña Clemow</t>
+  </si>
+  <si>
+    <t>08:42</t>
+  </si>
+  <si>
+    <t>Efrain Santiago Ovando</t>
+  </si>
+  <si>
+    <t>10:11</t>
+  </si>
+  <si>
+    <t>Erendira Alin Enriquez Vallejo</t>
+  </si>
+  <si>
+    <t>Eric Antonio Juarez Cabal</t>
+  </si>
+  <si>
+    <t>Fernando Garcia Carmona</t>
   </si>
   <si>
     <t>9:00 - 19:00</t>
   </si>
   <si>
-    <t>09:11</t>
-  </si>
-  <si>
-    <t>Abdiel Alonso Gonzalez</t>
-  </si>
-  <si>
-    <t>MBXA</t>
-  </si>
-  <si>
-    <t>8:30 - 19:00</t>
-  </si>
-  <si>
-    <t>08:35</t>
-  </si>
-  <si>
-    <t>Abraham Mendez Hernandez</t>
-  </si>
-  <si>
-    <t>MBCZ</t>
-  </si>
-  <si>
-    <t>8:30 - 18:00</t>
-  </si>
-  <si>
-    <t>08:31</t>
-  </si>
-  <si>
-    <t>Adolfo Olvera Valdivia</t>
-  </si>
-  <si>
-    <t>REFACCIONES</t>
-  </si>
-  <si>
-    <t>MBCO</t>
+    <t>Fernando Vazquez Hernandez</t>
+  </si>
+  <si>
+    <t>09:02</t>
+  </si>
+  <si>
+    <t>Francisco Javier Martinez Lizardo</t>
+  </si>
+  <si>
+    <t>MBZA</t>
+  </si>
+  <si>
+    <t>8:00 - 18:00</t>
+  </si>
+  <si>
+    <t>08:05</t>
+  </si>
+  <si>
+    <t>Fredy Rodriguez Huerta</t>
+  </si>
+  <si>
+    <t>Giovanni Arena Pimentel</t>
+  </si>
+  <si>
+    <t>08:37</t>
+  </si>
+  <si>
+    <t>Gloria Sandoval Hernandez</t>
+  </si>
+  <si>
+    <t>Hector Linares Andraca</t>
+  </si>
+  <si>
+    <t>MBAC</t>
+  </si>
+  <si>
+    <t>Hugo Rodriguez Romero</t>
+  </si>
+  <si>
+    <t>08:53</t>
+  </si>
+  <si>
+    <t>Isa Edith Valdez Caballero</t>
+  </si>
+  <si>
+    <t>MBCECO</t>
+  </si>
+  <si>
+    <t>Isis Del Carmen Martinez Gutierrez</t>
+  </si>
+  <si>
+    <t>Jacob Rafael Ramirez Garcia</t>
+  </si>
+  <si>
+    <t>09:28</t>
+  </si>
+  <si>
+    <t>Javier Jesus Izquierdo Ulloa</t>
+  </si>
+  <si>
+    <t>Javier Martinez Vega</t>
+  </si>
+  <si>
+    <t>09:17</t>
+  </si>
+  <si>
+    <t>Joaquin De La Cruz Gomez</t>
+  </si>
+  <si>
+    <t>Joel Islas Aguilar</t>
+  </si>
+  <si>
+    <t>ISPH</t>
+  </si>
+  <si>
+    <t>10:02</t>
+  </si>
+  <si>
+    <t>Jordy Garcia Izquierdo</t>
+  </si>
+  <si>
+    <t>Jorge Alberto Guerra Pastrana</t>
+  </si>
+  <si>
+    <t>09:10</t>
+  </si>
+  <si>
+    <t>Jose Armando Molina Bautista</t>
+  </si>
+  <si>
+    <t>ISVE</t>
+  </si>
+  <si>
+    <t>10:10</t>
+  </si>
+  <si>
+    <t>Jose Luis Vargas Trujillo</t>
+  </si>
+  <si>
+    <t>Jose Patricio Alarcon Navarro</t>
   </si>
   <si>
     <t>08:41</t>
   </si>
   <si>
-    <t>Adriana Ivonne Casarin Galicia</t>
-  </si>
-  <si>
-    <t>ADMINISTRACION CORPORATIVA</t>
-  </si>
-  <si>
-    <t>EXVE</t>
-  </si>
-  <si>
-    <t>08:30 - 17:30</t>
-  </si>
-  <si>
-    <t>08:51</t>
-  </si>
-  <si>
-    <t>Agustin Gonzalez Perez</t>
-  </si>
-  <si>
-    <t>MBTG</t>
+    <t>Juan Dominguez Ortega</t>
   </si>
   <si>
     <t>08:36</t>
   </si>
   <si>
-    <t>Ahtziri Sarahi Rodriguez Fuentes</t>
-  </si>
-  <si>
-    <t>NUEVAS</t>
-  </si>
-  <si>
-    <t>ACVE</t>
-  </si>
-  <si>
-    <t>8:30 - 19:30</t>
-  </si>
-  <si>
-    <t>08:49</t>
-  </si>
-  <si>
-    <t>Alan Felix Macias</t>
-  </si>
-  <si>
-    <t>MBZA</t>
-  </si>
-  <si>
-    <t>8:00 - 18:00</t>
-  </si>
-  <si>
-    <t>08:03</t>
-  </si>
-  <si>
-    <t>Alberto Castro Espinoza</t>
-  </si>
-  <si>
-    <t>CHDM</t>
-  </si>
-  <si>
-    <t>08:57</t>
-  </si>
-  <si>
-    <t>Alberto De Jesus Ruiz Castillo</t>
-  </si>
-  <si>
-    <t>CENTRALIZADOR ADMINISTRACION</t>
+    <t>Karina Leon Hernandez</t>
+  </si>
+  <si>
+    <t>BDC POST VENTA</t>
+  </si>
+  <si>
+    <t>Karla Candelaria Muñoz Naranjo</t>
+  </si>
+  <si>
+    <t>Kevin De Jesus Morales Garcia</t>
   </si>
   <si>
     <t>MBCE</t>
   </si>
   <si>
-    <t>Alberto Sanchez Fermin</t>
-  </si>
-  <si>
-    <t>Alejandra Espinos Huerta</t>
+    <t>Laura Elizabeth Pou Rivera</t>
   </si>
   <si>
     <t>CENTRALIZADOR OPERATIVO</t>
   </si>
   <si>
-    <t>Alejandro Rodriguez Celis</t>
+    <t>Leobardo Moreno Ramos</t>
+  </si>
+  <si>
+    <t>Luis Alfredo Alarcon Martinez</t>
+  </si>
+  <si>
+    <t>Luis Fernando Hernandez Muñoz</t>
+  </si>
+  <si>
+    <t>Marcela Monroy Margarito</t>
+  </si>
+  <si>
+    <t>POST VENTA</t>
+  </si>
+  <si>
+    <t>MBTUKU</t>
+  </si>
+  <si>
+    <t>8:00 - 17:30</t>
+  </si>
+  <si>
+    <t>08:08</t>
+  </si>
+  <si>
+    <t>Maria Del Carmen Julian Trapaga</t>
+  </si>
+  <si>
+    <t>MBTU</t>
+  </si>
+  <si>
+    <t>08:06</t>
+  </si>
+  <si>
+    <t>Maria Del Carmen Muñoz Lopez</t>
+  </si>
+  <si>
+    <t>Maria Elena Lopez Vivanco</t>
+  </si>
+  <si>
+    <t>Maricruz Del Campo Villalobos</t>
+  </si>
+  <si>
+    <t>Marisol Trejo Landa</t>
+  </si>
+  <si>
+    <t>08:45</t>
+  </si>
+  <si>
+    <t>Mauricio Rosales Alvarez</t>
   </si>
   <si>
     <t>UNIDADES</t>
   </si>
   <si>
-    <t>MBVE</t>
-  </si>
-  <si>
-    <t>Alejandro Rosas Tapia</t>
-  </si>
-  <si>
-    <t>08:34</t>
-  </si>
-  <si>
-    <t>Alondra Rodriguez Ortega</t>
-  </si>
-  <si>
-    <t>MBCU</t>
-  </si>
-  <si>
-    <t>08:40</t>
-  </si>
-  <si>
-    <t>Ana Luisa Garcia Portilla</t>
-  </si>
-  <si>
-    <t>ADMINISTRATIVO</t>
-  </si>
-  <si>
-    <t>Ana Minerva Arellano Vargas</t>
-  </si>
-  <si>
-    <t>ISPH</t>
-  </si>
-  <si>
-    <t>09:00 - 18:00</t>
-  </si>
-  <si>
-    <t>09:01</t>
-  </si>
-  <si>
-    <t>Andrea Stephania Valerio Galvez</t>
-  </si>
-  <si>
-    <t>09:00 - 19:30</t>
-  </si>
-  <si>
-    <t>Angel Eduardo Gonzalez Perez</t>
-  </si>
-  <si>
-    <t>MBCI</t>
-  </si>
-  <si>
-    <t>08:42</t>
-  </si>
-  <si>
-    <t>Apolinar Rafael Landa Rivera</t>
-  </si>
-  <si>
-    <t>08:32</t>
-  </si>
-  <si>
-    <t>Arturo Lucio Jimenez Fierro</t>
-  </si>
-  <si>
-    <t>08:45</t>
-  </si>
-  <si>
-    <t>Bertha Patricia Zuñiga Rosales</t>
-  </si>
-  <si>
-    <t>CHMO</t>
-  </si>
-  <si>
-    <t>08:59</t>
-  </si>
-  <si>
-    <t>Brenda Ines Olvera Thome</t>
-  </si>
-  <si>
-    <t>BDC VENTAS</t>
-  </si>
-  <si>
-    <t>09:28</t>
-  </si>
-  <si>
-    <t>Candelaria Salazar Mayo</t>
-  </si>
-  <si>
-    <t>09:14</t>
-  </si>
-  <si>
-    <t>Carlos Enrique Lozano Lopez</t>
-  </si>
-  <si>
-    <t>Carlos Juan Diaz Gonzalez</t>
-  </si>
-  <si>
-    <t>09:34</t>
-  </si>
-  <si>
-    <t>Cristina Basurto Vazquez</t>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>Dafne Yamari Barragan Zapata</t>
-  </si>
-  <si>
-    <t>GENERALES</t>
-  </si>
-  <si>
-    <t>09:03</t>
-  </si>
-  <si>
-    <t>Dalia Yaczhintle Garcia Pulido</t>
-  </si>
-  <si>
-    <t>BDC</t>
-  </si>
-  <si>
-    <t>09:16</t>
-  </si>
-  <si>
-    <t>Daniel Perez Torres</t>
-  </si>
-  <si>
-    <t>SEMINUEVOS</t>
-  </si>
-  <si>
-    <t>08:47</t>
-  </si>
-  <si>
-    <t>David Lopez Garcia</t>
-  </si>
-  <si>
-    <t>HOJALATERIA Y PINTURA</t>
-  </si>
-  <si>
-    <t>Diana Monserrat Montes Lara</t>
-  </si>
-  <si>
-    <t>08:56</t>
-  </si>
-  <si>
-    <t>Diego De Jesus Solano Gutierrez</t>
-  </si>
-  <si>
-    <t>08:44</t>
-  </si>
-  <si>
-    <t>Diego Osornio Ortiz</t>
-  </si>
-  <si>
-    <t>Eder Yamil Montero Gomez</t>
-  </si>
-  <si>
-    <t>Edgar Alfonso Garcia Mayorga</t>
-  </si>
-  <si>
-    <t>08:37</t>
-  </si>
-  <si>
-    <t>Edher Julian Bravo Hernandez</t>
-  </si>
-  <si>
-    <t>CENTRALIZADOR CONTABILIDAD</t>
-  </si>
-  <si>
-    <t>CEEXVE</t>
-  </si>
-  <si>
-    <t>Eduardo Diaz Sandoval</t>
-  </si>
-  <si>
-    <t>Efrain Santiago Ovando</t>
-  </si>
-  <si>
-    <t>Elizabeth Lazaro Quiroga</t>
-  </si>
-  <si>
-    <t>Elizabeth Martinez Cuevas</t>
-  </si>
-  <si>
-    <t>CENTRALIZADOR FINANZAS</t>
-  </si>
-  <si>
-    <t>Elizabeth Martinez Reyes</t>
-  </si>
-  <si>
-    <t>Erendira Alin Enriquez Vallejo</t>
-  </si>
-  <si>
-    <t>09:05</t>
-  </si>
-  <si>
-    <t>Esveidy Paredes Gomez</t>
-  </si>
-  <si>
-    <t>Ewing Lael Rodriguez Ramirez</t>
-  </si>
-  <si>
-    <t>Fernando Masiel Solano Chavarria</t>
-  </si>
-  <si>
-    <t>Fernando Vazquez Hernandez</t>
-  </si>
-  <si>
-    <t>09:07</t>
-  </si>
-  <si>
-    <t>Francisco Aldazaba Salinas</t>
-  </si>
-  <si>
-    <t>Francisco Javier Gomez Ramirez</t>
-  </si>
-  <si>
-    <t>Gerardo Galvan Chavez</t>
-  </si>
-  <si>
-    <t>CENTRALIZADOR SISTEMAS</t>
-  </si>
-  <si>
-    <t>Gilberto Lara Romero</t>
-  </si>
-  <si>
-    <t>Giovanni Arena Pimentel</t>
-  </si>
-  <si>
-    <t>Giber Gopar Vargas Camacho</t>
-  </si>
-  <si>
-    <t>Hugo Rodriguez Romero</t>
-  </si>
-  <si>
-    <t>Iris Ivonne Valladares Vergara</t>
-  </si>
-  <si>
-    <t>POST VENTA</t>
-  </si>
-  <si>
-    <t>Ivan Guerrero Serrano</t>
-  </si>
-  <si>
-    <t>Jacob Rafael Ramirez Garcia</t>
-  </si>
-  <si>
-    <t>Jeniffer Yamilhet Bruno Martinez</t>
-  </si>
-  <si>
-    <t>Jessica Escalante Valencia</t>
-  </si>
-  <si>
-    <t>Jesus Antonio Aguilar Sanchez</t>
-  </si>
-  <si>
-    <t>Jorge Alberto Esteves Illescas</t>
-  </si>
-  <si>
-    <t>Jose Enrique Sarabia Amador</t>
-  </si>
-  <si>
-    <t>Jose Patricio Alarcon Navarro</t>
-  </si>
-  <si>
-    <t>08:50</t>
-  </si>
-  <si>
-    <t>Juan Antonio Clemente Moreno</t>
-  </si>
-  <si>
-    <t>MBTUKU</t>
-  </si>
-  <si>
-    <t>8:00 - 17:30</t>
-  </si>
-  <si>
-    <t>08:11</t>
-  </si>
-  <si>
-    <t>Juan Pablo Perez Nafate</t>
-  </si>
-  <si>
-    <t>08:38</t>
-  </si>
-  <si>
-    <t>Karina Leon Hernandez</t>
-  </si>
-  <si>
-    <t>BDC POST VENTA</t>
-  </si>
-  <si>
-    <t>09:04</t>
-  </si>
-  <si>
-    <t>Karla Candelaria Muñoz Naranjo</t>
-  </si>
-  <si>
-    <t>Kevin De Jesus Morales Garcia</t>
-  </si>
-  <si>
-    <t>Laura Elizabeth Pou Rivera</t>
-  </si>
-  <si>
-    <t>Leobardo Moreno Ramos</t>
-  </si>
-  <si>
-    <t>Luis Abel Heredia Mendez</t>
-  </si>
-  <si>
-    <t>08:48</t>
-  </si>
-  <si>
-    <t>Luis Alfredo Alarcon Martinez</t>
-  </si>
-  <si>
-    <t>Luis Alonso Roca De La Torre</t>
-  </si>
-  <si>
-    <t>08:01</t>
-  </si>
-  <si>
-    <t>Luis Fernando Hernandez Muñoz</t>
-  </si>
-  <si>
-    <t>Luis Gustavo Beltran Montes</t>
-  </si>
-  <si>
-    <t>Manuel Genaro Chigo Pelayo</t>
-  </si>
-  <si>
-    <t>Marcela Monroy Margarito</t>
-  </si>
-  <si>
-    <t>08:05</t>
-  </si>
-  <si>
-    <t>Maria Del Carmen Escribano Garcia</t>
-  </si>
-  <si>
-    <t>Maria Del Carmen Muñoz Lopez</t>
-  </si>
-  <si>
-    <t>Maria Elena Lopez Vivanco</t>
-  </si>
-  <si>
-    <t>Martin Reyes Morales</t>
-  </si>
-  <si>
-    <t>08:33</t>
-  </si>
-  <si>
-    <t>Maria Fernanda Balderas Sierra</t>
-  </si>
-  <si>
-    <t>Mauricio Lozano Galvan</t>
-  </si>
-  <si>
-    <t>Mayra Scarlett Rodriguez Cano</t>
-  </si>
-  <si>
-    <t>Michelle De Jesus Gonzalez Cruz</t>
-  </si>
-  <si>
     <t>Miguel Angel Gonzaga Romero</t>
   </si>
   <si>
     <t>CENTRALIZADOR</t>
   </si>
   <si>
-    <t>08:39</t>
-  </si>
-  <si>
-    <t>Miguel Angel Hernandez Montiel</t>
-  </si>
-  <si>
     <t>Monserrat Rodriguez Sanchez</t>
   </si>
   <si>
-    <t>Norma Leticia Reyes Jota</t>
-  </si>
-  <si>
-    <t>09:41</t>
-  </si>
-  <si>
-    <t>Omar Jacome Valladares</t>
+    <t>08:55</t>
+  </si>
+  <si>
+    <t>Rafael Ivan Balcazar Arenas</t>
   </si>
   <si>
     <t>Ramon Treviño Sagrero</t>
   </si>
   <si>
+    <t>Ricardo Brambila Corro</t>
+  </si>
+  <si>
+    <t>Ricardo Lara Pestaña</t>
+  </si>
+  <si>
+    <t>Ricardo Mota Garcia</t>
+  </si>
+  <si>
+    <t>Roxana Alejandra Pineda Joachin</t>
+  </si>
+  <si>
     <t>Ruben Aguirre Leon</t>
   </si>
   <si>
-    <t>Salvador Martinez Mendoza</t>
-  </si>
-  <si>
-    <t>Saydel Romero Rodriguez</t>
-  </si>
-  <si>
-    <t>09:13</t>
-  </si>
-  <si>
-    <t>Sheyla Nicol Meza Aguilar</t>
-  </si>
-  <si>
-    <t>CENTRALIZADOR RECURSOS HUMANOS</t>
-  </si>
-  <si>
-    <t>Tamara Hernandez Utrera</t>
-  </si>
-  <si>
-    <t>Teresa Juarez Santos</t>
-  </si>
-  <si>
-    <t>MBAC</t>
-  </si>
-  <si>
-    <t>09:02</t>
-  </si>
-  <si>
-    <t>Veronica Jimenez Hermida</t>
-  </si>
-  <si>
-    <t>Victor Hugo Alvarado Rebolledo</t>
-  </si>
-  <si>
-    <t>Viridiana Lizeth Aragon Alfonso</t>
+    <t>Sandra Yadira Velazquez Sanchez</t>
+  </si>
+  <si>
+    <t>Sarahi Elvira Rendon</t>
+  </si>
+  <si>
+    <t>Victor Manuel Muñoz Tabal</t>
+  </si>
+  <si>
+    <t>Yadira Loyo Morales</t>
+  </si>
+  <si>
+    <t>Yaeli Gonzalez Barragan</t>
   </si>
 </sst>
 </file>
@@ -978,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G84"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
@@ -1013,7 +962,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>7419</v>
+        <v>3933</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1036,7 +985,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3933</v>
+        <v>7345</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1059,45 +1008,45 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>7345</v>
+        <v>4790</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4790</v>
+        <v>598</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
       </c>
       <c r="G5" t="s">
         <v>24</v>
@@ -1105,7 +1054,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>598</v>
+        <v>7036</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -1128,13 +1077,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7360</v>
+        <v>7385</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
@@ -1143,7 +1092,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
@@ -1151,223 +1100,223 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7036</v>
+        <v>5340</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
         <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6626</v>
+        <v>7238</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7385</v>
+        <v>7315</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5017</v>
+        <v>7020</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5340</v>
+        <v>7116</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>6265</v>
+        <v>6539</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>6690</v>
+        <v>6947</v>
       </c>
       <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
         <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>7315</v>
+        <v>7421</v>
       </c>
       <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="s">
         <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>7289</v>
+        <v>6680</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>6947</v>
+        <v>7399</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -1376,90 +1325,90 @@
         <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>7162</v>
+        <v>6634</v>
       </c>
       <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" t="s">
         <v>61</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>7421</v>
+        <v>4422</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>6680</v>
+        <v>6989</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1947</v>
+        <v>7383</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -1468,179 +1417,179 @@
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>921</v>
+        <v>6936</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>7399</v>
+        <v>6849</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>6634</v>
+        <v>4975</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>4422</v>
+        <v>3835</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="G25" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>3556</v>
+        <v>3646</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>7383</v>
+        <v>6548</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>6936</v>
+        <v>6893</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>6891</v>
+        <v>7195</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
         <v>43</v>
@@ -1649,369 +1598,369 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>6849</v>
+        <v>7270</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>4975</v>
+        <v>7132</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>3835</v>
+        <v>7367</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>6548</v>
+        <v>7384</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>6893</v>
+        <v>7168</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G34" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>7195</v>
+        <v>6895</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G35" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>7092</v>
+        <v>6784</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="G36" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>7270</v>
+        <v>7208</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="G37" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>7132</v>
+        <v>7183</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="G38" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>578</v>
+        <v>6882</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G39" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>7384</v>
+        <v>5151</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G40" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>4374</v>
+        <v>7196</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>5181</v>
+        <v>6775</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G42" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>5349</v>
+        <v>6803</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G43" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>7168</v>
+        <v>6818</v>
       </c>
       <c r="B44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" t="s">
         <v>115</v>
       </c>
-      <c r="C44" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" t="s">
-        <v>75</v>
-      </c>
       <c r="E44" t="s">
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G44" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>7287</v>
+        <v>7034</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
@@ -2020,35 +1969,35 @@
         <v>28</v>
       </c>
       <c r="G45" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>6646</v>
+        <v>5294</v>
       </c>
       <c r="B46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46" t="s">
         <v>118</v>
-      </c>
-      <c r="C46" t="s">
-        <v>107</v>
-      </c>
-      <c r="D46" t="s">
-        <v>108</v>
-      </c>
-      <c r="E46" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G46" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>7391</v>
+        <v>6874</v>
       </c>
       <c r="B47" t="s">
         <v>119</v>
@@ -2057,36 +2006,36 @@
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E47" t="s">
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G47" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>7208</v>
+        <v>5381</v>
       </c>
       <c r="B48" t="s">
         <v>120</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E48" t="s">
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="G48" t="s">
         <v>121</v>
@@ -2094,137 +2043,137 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>7173</v>
+        <v>2804</v>
       </c>
       <c r="B49" t="s">
         <v>122</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G49" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>3969</v>
+        <v>7054</v>
       </c>
       <c r="B50" t="s">
         <v>123</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G50" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>7377</v>
+        <v>5348</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G51" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>5867</v>
+        <v>6858</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C52" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G52" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>5151</v>
+        <v>5154</v>
       </c>
       <c r="B53" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="G53" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>7261</v>
+        <v>6225</v>
       </c>
       <c r="B54" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="E54" t="s">
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G54" t="s">
         <v>16</v>
@@ -2232,200 +2181,200 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>6803</v>
+        <v>7268</v>
       </c>
       <c r="B55" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G55" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>6218</v>
+        <v>6677</v>
       </c>
       <c r="B56" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G56" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>7053</v>
+        <v>6898</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="D57" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G57" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>5294</v>
+        <v>7094</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="G58" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>7167</v>
+        <v>6983</v>
       </c>
       <c r="B59" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="E59" t="s">
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G59" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>7133</v>
+        <v>3538</v>
       </c>
       <c r="B60" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C60" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="D60" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E60" t="s">
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G60" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>7154</v>
+        <v>7042</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C61" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s">
+        <v>50</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s">
         <v>23</v>
       </c>
-      <c r="E61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" t="s">
-        <v>15</v>
-      </c>
       <c r="G61" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>811</v>
+        <v>3135</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C62" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E62" t="s">
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G62" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>223</v>
+        <v>7342</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C63" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E63" t="s">
         <v>10</v>
@@ -2439,200 +2388,200 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>7268</v>
+        <v>6609</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="D64" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="E64" t="s">
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="G64" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>7079</v>
+        <v>6994</v>
       </c>
       <c r="B65" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E65" t="s">
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G65" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>7188</v>
+        <v>136</v>
       </c>
       <c r="B66" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E66" t="s">
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>6898</v>
+        <v>844</v>
       </c>
       <c r="B67" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C67" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="G67" t="s">
-        <v>149</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>7094</v>
+        <v>6881</v>
       </c>
       <c r="B68" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C68" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E68" t="s">
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="G68" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>6983</v>
+        <v>6927</v>
       </c>
       <c r="B69" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C69" t="s">
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="E69" t="s">
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G69" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>3538</v>
+        <v>6733</v>
       </c>
       <c r="B70" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C70" t="s">
+        <v>161</v>
+      </c>
+      <c r="D70" t="s">
         <v>50</v>
       </c>
-      <c r="D70" t="s">
-        <v>9</v>
-      </c>
       <c r="E70" t="s">
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G70" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>7042</v>
+        <v>6765</v>
       </c>
       <c r="B71" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="D71" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E71" t="s">
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>7266</v>
+        <v>7386</v>
       </c>
       <c r="B72" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C72" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E72" t="s">
         <v>10</v>
@@ -2641,110 +2590,110 @@
         <v>28</v>
       </c>
       <c r="G72" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>3135</v>
+        <v>213</v>
       </c>
       <c r="B73" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E73" t="s">
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="G73" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>7417</v>
+        <v>5360</v>
       </c>
       <c r="B74" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="D74" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E74" t="s">
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="G74" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>7342</v>
+        <v>7044</v>
       </c>
       <c r="B75" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="E75" t="s">
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G75" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>6125</v>
+        <v>6244</v>
       </c>
       <c r="B76" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E76" t="s">
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G76" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>7109</v>
+        <v>6270</v>
       </c>
       <c r="B77" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C77" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="D77" t="s">
         <v>43</v>
@@ -2753,53 +2702,53 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G77" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>6609</v>
+        <v>6617</v>
       </c>
       <c r="B78" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C78" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="E78" t="s">
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="G78" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>5060</v>
+        <v>5564</v>
       </c>
       <c r="B79" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C79" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E79" t="s">
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G79" t="s">
         <v>32</v>
@@ -2807,512 +2756,121 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>136</v>
+        <v>5926</v>
       </c>
       <c r="B80" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C80" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E80" t="s">
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G80" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>844</v>
+        <v>6932</v>
       </c>
       <c r="B81" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
         <v>50</v>
       </c>
-      <c r="D81" t="s">
-        <v>9</v>
-      </c>
       <c r="E81" t="s">
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>570</v>
+        <v>1877</v>
       </c>
       <c r="B82" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C82" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="D82" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="E82" t="s">
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G82" t="s">
-        <v>168</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>7401</v>
+        <v>5677</v>
       </c>
       <c r="B83" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C83" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E83" t="s">
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G83" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>3307</v>
+        <v>7362</v>
       </c>
       <c r="B84" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C84" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E84" t="s">
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G84" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>6750</v>
-      </c>
-      <c r="B85" t="s">
-        <v>171</v>
-      </c>
-      <c r="C85" t="s">
-        <v>97</v>
-      </c>
-      <c r="D85" t="s">
-        <v>43</v>
-      </c>
-      <c r="E85" t="s">
-        <v>10</v>
-      </c>
-      <c r="F85" t="s">
-        <v>28</v>
-      </c>
-      <c r="G85" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>7008</v>
-      </c>
-      <c r="B86" t="s">
-        <v>172</v>
-      </c>
-      <c r="C86" t="s">
-        <v>46</v>
-      </c>
-      <c r="D86" t="s">
-        <v>47</v>
-      </c>
-      <c r="E86" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" t="s">
-        <v>28</v>
-      </c>
-      <c r="G86" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>6765</v>
-      </c>
-      <c r="B87" t="s">
-        <v>173</v>
-      </c>
-      <c r="C87" t="s">
-        <v>174</v>
-      </c>
-      <c r="D87" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" t="s">
-        <v>10</v>
-      </c>
-      <c r="F87" t="s">
-        <v>28</v>
-      </c>
-      <c r="G87" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>6867</v>
-      </c>
-      <c r="B88" t="s">
-        <v>176</v>
-      </c>
-      <c r="C88" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" t="s">
-        <v>57</v>
-      </c>
-      <c r="E88" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>7386</v>
-      </c>
-      <c r="B89" t="s">
-        <v>177</v>
-      </c>
-      <c r="C89" t="s">
-        <v>34</v>
-      </c>
-      <c r="D89" t="s">
-        <v>43</v>
-      </c>
-      <c r="E89" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" t="s">
-        <v>36</v>
-      </c>
-      <c r="G89" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>5307</v>
-      </c>
-      <c r="B90" t="s">
-        <v>178</v>
-      </c>
-      <c r="C90" t="s">
-        <v>78</v>
-      </c>
-      <c r="D90" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" t="s">
-        <v>66</v>
-      </c>
-      <c r="G90" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>5609</v>
-      </c>
-      <c r="B91" t="s">
-        <v>180</v>
-      </c>
-      <c r="C91" t="s">
-        <v>97</v>
-      </c>
-      <c r="D91" t="s">
-        <v>43</v>
-      </c>
-      <c r="E91" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" t="s">
-        <v>28</v>
-      </c>
-      <c r="G91" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>5360</v>
-      </c>
-      <c r="B92" t="s">
-        <v>181</v>
-      </c>
-      <c r="C92" t="s">
-        <v>88</v>
-      </c>
-      <c r="D92" t="s">
-        <v>18</v>
-      </c>
-      <c r="E92" t="s">
-        <v>10</v>
-      </c>
-      <c r="F92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>5564</v>
-      </c>
-      <c r="B93" t="s">
-        <v>182</v>
-      </c>
-      <c r="C93" t="s">
-        <v>22</v>
-      </c>
-      <c r="D93" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" t="s">
-        <v>63</v>
-      </c>
-      <c r="G93" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>7394</v>
-      </c>
-      <c r="B94" t="s">
-        <v>183</v>
-      </c>
-      <c r="C94" t="s">
-        <v>94</v>
-      </c>
-      <c r="D94" t="s">
-        <v>23</v>
-      </c>
-      <c r="E94" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" t="s">
-        <v>15</v>
-      </c>
-      <c r="G94" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>6831</v>
-      </c>
-      <c r="B95" t="s">
-        <v>184</v>
-      </c>
-      <c r="C95" t="s">
-        <v>34</v>
-      </c>
-      <c r="D95" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95" t="s">
-        <v>10</v>
-      </c>
-      <c r="F95" t="s">
-        <v>66</v>
-      </c>
-      <c r="G95" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>7433</v>
-      </c>
-      <c r="B96" t="s">
-        <v>186</v>
-      </c>
-      <c r="C96" t="s">
-        <v>187</v>
-      </c>
-      <c r="D96" t="s">
-        <v>27</v>
-      </c>
-      <c r="E96" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96" t="s">
-        <v>28</v>
-      </c>
-      <c r="G96" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>5024</v>
-      </c>
-      <c r="B97" t="s">
-        <v>188</v>
-      </c>
-      <c r="C97" t="s">
-        <v>52</v>
-      </c>
-      <c r="D97" t="s">
-        <v>14</v>
-      </c>
-      <c r="E97" t="s">
-        <v>10</v>
-      </c>
-      <c r="F97" t="s">
-        <v>15</v>
-      </c>
-      <c r="G97" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>6827</v>
-      </c>
-      <c r="B98" t="s">
-        <v>189</v>
-      </c>
-      <c r="C98" t="s">
-        <v>88</v>
-      </c>
-      <c r="D98" t="s">
-        <v>190</v>
-      </c>
-      <c r="E98" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>2207</v>
-      </c>
-      <c r="B99" t="s">
-        <v>192</v>
-      </c>
-      <c r="C99" t="s">
-        <v>46</v>
-      </c>
-      <c r="D99" t="s">
-        <v>47</v>
-      </c>
-      <c r="E99" t="s">
-        <v>10</v>
-      </c>
-      <c r="F99" t="s">
-        <v>28</v>
-      </c>
-      <c r="G99" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>5661</v>
-      </c>
-      <c r="B100" t="s">
-        <v>193</v>
-      </c>
-      <c r="C100" t="s">
-        <v>97</v>
-      </c>
-      <c r="D100" t="s">
-        <v>43</v>
-      </c>
-      <c r="E100" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" t="s">
-        <v>28</v>
-      </c>
-      <c r="G100" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>6837</v>
-      </c>
-      <c r="B101" t="s">
-        <v>194</v>
-      </c>
-      <c r="C101" t="s">
-        <v>22</v>
-      </c>
-      <c r="D101" t="s">
-        <v>53</v>
-      </c>
-      <c r="E101" t="s">
-        <v>10</v>
-      </c>
-      <c r="F101" t="s">
-        <v>15</v>
-      </c>
-      <c r="G101" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D101"/>
+  <autoFilter ref="A1:D84"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
